--- a/OTLY.xlsx
+++ b/OTLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152359E-EAA5-433F-B6F6-F0BD3EA524FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A05BA-2EFC-4336-B6E6-AA7A1B28C99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$20:$Q$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$3:$Q$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$4:$Q$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$3:$Q$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$4:$Q$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$20:$Q$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$21:$Q$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$2:$Q$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="174">
   <si>
     <t>Price</t>
   </si>
@@ -456,16 +456,137 @@
   <si>
     <t>Shareholder Loans/Conv Notes</t>
   </si>
+  <si>
+    <t>w/w</t>
+  </si>
+  <si>
+    <t>Close to Close Weekly returns</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Cumulative Percentage</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Descriptive Statistics</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Average Returns</t>
+  </si>
+  <si>
+    <t>Frequency %</t>
+  </si>
+  <si>
+    <t>Frequency Adjusted Return</t>
+  </si>
+  <si>
+    <t>Positive Data Points</t>
+  </si>
+  <si>
+    <t>Negative Data Points</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Actual Count</t>
+  </si>
+  <si>
+    <t>Actual % Count</t>
+  </si>
+  <si>
+    <t>Normal % Count</t>
+  </si>
+  <si>
+    <t>Percentiles</t>
+  </si>
+  <si>
+    <t>Stop %</t>
+  </si>
+  <si>
+    <t>Target %</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Stop Price</t>
+  </si>
+  <si>
+    <t>Target Price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,8 +631,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,8 +703,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -637,13 +809,470 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -700,31 +1329,129 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1568,6 +2295,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AFAB-4A81-868C-D3049273DB87}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1584,6 +2316,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AFAB-4A81-868C-D3049273DB87}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2186,6 +2923,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3ED5-44A1-AF5A-01324757E5F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -2202,6 +2944,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3ED5-44A1-AF5A-01324757E5F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -8209,23 +8956,364 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DoR!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DoR!$K$4:$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Less than -36,24%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-36,24% to -29,27%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-29,27% to -22,30%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22,30% to -15,33%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15,33% to -8,36%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8,36% to -1,39%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1,39% to 5,59%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5,59% to 12,56%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12,56% to 19,53%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19,53% to 26,50%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26,50% to 33,47%</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Greater than 33,47%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DoR!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBDF-4BFC-BC2A-530771AA82D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="1429205823"/>
+        <c:axId val="1429206303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1429205823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429206303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1429206303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429205823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8269,7 +9357,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8289,7 +9377,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8320,18 +9408,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8375,7 +9463,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8395,7 +9483,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8702,6 +9790,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12871,6 +13999,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13259,6 +14895,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>195261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1438274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7C12E0-A9ED-4B10-9477-A62354266FE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13826,7 +15505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13836,9 +15515,7 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="56"/>
     <col min="16" max="16" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="56"/>
     <col min="24" max="24" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -13887,7 +15564,7 @@
       <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" t="s">
         <v>59</v>
       </c>
       <c r="P2" s="13" t="s">
@@ -13902,7 +15579,7 @@
       <c r="V2" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" t="s">
         <v>15</v>
       </c>
       <c r="X2" s="13" t="s">
@@ -13955,7 +15632,7 @@
       <c r="N3" s="10">
         <v>195987</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="10">
         <v>187595</v>
       </c>
       <c r="P3" s="15">
@@ -13969,7 +15646,7 @@
         <f>SUM(E3:H3)</f>
         <v>643190</v>
       </c>
-      <c r="W3" s="57">
+      <c r="W3" s="10">
         <f>SUM(I3:L3)</f>
         <v>722238</v>
       </c>
@@ -13996,12 +15673,12 @@
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
-      <c r="O4" s="66"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="46"/>
       <c r="Q4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
-      <c r="W4" s="57"/>
+      <c r="W4" s="10"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="10"/>
     </row>
@@ -14048,7 +15725,7 @@
       <c r="N5" s="10">
         <v>158331</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="10">
         <v>155034</v>
       </c>
       <c r="P5" s="15">
@@ -14061,7 +15738,7 @@
         <f>SUM(E5:H5)</f>
         <v>488177</v>
       </c>
-      <c r="W5" s="57">
+      <c r="W5" s="10">
         <f>SUM(I5:L5)</f>
         <v>642211</v>
       </c>
@@ -14114,7 +15791,7 @@
       <c r="N6" s="10">
         <v>5321</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="10">
         <v>4684</v>
       </c>
       <c r="P6" s="15">
@@ -14124,10 +15801,10 @@
         <v>6831</v>
       </c>
       <c r="V6" s="10">
-        <f t="shared" ref="V4:W12" si="0">SUM(E6:H6)</f>
+        <f t="shared" ref="V6:V10" si="0">SUM(E6:H6)</f>
         <v>16771</v>
       </c>
-      <c r="W6" s="57">
+      <c r="W6" s="10">
         <f>SUM(I6:L6)</f>
         <v>22262</v>
       </c>
@@ -14180,7 +15857,7 @@
       <c r="N7" s="10">
         <v>106695</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="10">
         <v>87125</v>
       </c>
       <c r="P7" s="15">
@@ -14193,7 +15870,7 @@
         <f t="shared" si="0"/>
         <v>353929</v>
       </c>
-      <c r="W7" s="57">
+      <c r="W7" s="10">
         <f>SUM(I7:L7)</f>
         <v>412799</v>
       </c>
@@ -14246,7 +15923,7 @@
       <c r="N8" s="10">
         <v>1120</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="10">
         <v>8100</v>
       </c>
       <c r="P8" s="15">
@@ -14259,7 +15936,7 @@
         <f t="shared" si="0"/>
         <v>-1944</v>
       </c>
-      <c r="W8" s="57">
+      <c r="W8" s="10">
         <f>SUM(I8:L8)</f>
         <v>40951</v>
       </c>
@@ -14325,7 +16002,7 @@
         <f t="shared" si="1"/>
         <v>-75480</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="11">
         <f t="shared" si="1"/>
         <v>-67348</v>
       </c>
@@ -14341,7 +16018,7 @@
         <f t="shared" si="2"/>
         <v>-213743</v>
       </c>
-      <c r="W9" s="58">
+      <c r="W9" s="11">
         <f t="shared" si="2"/>
         <v>-395985</v>
       </c>
@@ -14394,7 +16071,7 @@
       <c r="N10" s="10">
         <v>-11512</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="10">
         <v>112841</v>
       </c>
       <c r="P10" s="15">
@@ -14407,7 +16084,7 @@
         <f t="shared" si="0"/>
         <v>-1305</v>
       </c>
-      <c r="W10" s="57">
+      <c r="W10" s="10">
         <f>SUM(I10:L10)</f>
         <v>-1409</v>
       </c>
@@ -14473,7 +16150,7 @@
         <f t="shared" si="3"/>
         <v>-86992</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="11">
         <f t="shared" si="3"/>
         <v>45493</v>
       </c>
@@ -14489,7 +16166,7 @@
         <f t="shared" si="4"/>
         <v>-215048</v>
       </c>
-      <c r="W11" s="58">
+      <c r="W11" s="11">
         <f t="shared" si="4"/>
         <v>-397394</v>
       </c>
@@ -14542,7 +16219,7 @@
       <c r="N12" s="10">
         <v>273</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="10">
         <v>-1482</v>
       </c>
       <c r="P12" s="15">
@@ -14555,7 +16232,7 @@
         <f>SUM(E12:H12)</f>
         <v>2655</v>
       </c>
-      <c r="W12" s="57">
+      <c r="W12" s="10">
         <f>SUM(I12:L12)</f>
         <v>4827</v>
       </c>
@@ -14621,7 +16298,7 @@
         <f t="shared" si="5"/>
         <v>-86719</v>
       </c>
-      <c r="O13" s="58">
+      <c r="O13" s="11">
         <f t="shared" si="5"/>
         <v>44011</v>
       </c>
@@ -14642,7 +16319,7 @@
         <f t="shared" si="6"/>
         <v>-212393</v>
       </c>
-      <c r="W13" s="58">
+      <c r="W13" s="11">
         <f t="shared" si="6"/>
         <v>-392567</v>
       </c>
@@ -14655,375 +16332,375 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="49">
         <v>3113</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>3256</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>3898</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <v>3822</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="49">
         <v>4642</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="49">
         <v>7922</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <v>10836</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="49">
         <v>10731</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <v>11877</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="49">
         <v>12157</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="49">
         <v>13835</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="49">
         <v>12233</v>
       </c>
-      <c r="N14" s="50">
+      <c r="N14" s="49">
         <v>12464</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="49">
         <v>12559</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="52">
         <v>14618</v>
       </c>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="50">
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="49">
         <v>13118</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14" s="49">
         <v>27222</v>
       </c>
-      <c r="W14" s="50">
+      <c r="W14" s="49">
         <f>SUM(I14:L14)</f>
         <v>48600</v>
       </c>
-      <c r="X14" s="53">
+      <c r="X14" s="52">
         <f>SUM(M14:P14)</f>
         <v>51874</v>
       </c>
-      <c r="Y14" s="50"/>
+      <c r="Y14" s="49"/>
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="51">
         <f>B13+B14-B12-B10</f>
         <v>-1234</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <f>C13+C14-C12-C10</f>
         <v>-4626</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="51">
         <f t="shared" ref="D15:N15" si="7">D13+D14-D12-D10</f>
         <v>-25795</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <f t="shared" si="7"/>
         <v>-24693</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="51">
         <f t="shared" si="7"/>
         <v>-43462</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="51">
         <f t="shared" si="7"/>
         <v>-36535</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <f t="shared" si="7"/>
         <v>-81831</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="51">
         <f t="shared" si="7"/>
         <v>-81426</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="51">
         <f t="shared" si="7"/>
         <v>-62552</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="51">
         <f t="shared" si="7"/>
         <v>-92211</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="51">
         <f t="shared" si="7"/>
         <v>-111196</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="51">
         <f t="shared" si="7"/>
         <v>-59336</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="51">
         <f t="shared" si="7"/>
         <v>-63016</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="51">
         <f>O13+O14-O12-O10</f>
         <v>-54789</v>
       </c>
-      <c r="P15" s="54">
+      <c r="P15" s="53">
         <f>P13+P14-P12-P10</f>
         <v>-227997</v>
       </c>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="52">
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51">
         <f t="shared" ref="U15:X15" si="8">U13+U14-U12-U10</f>
         <v>-33975</v>
       </c>
-      <c r="V15" s="52">
+      <c r="V15" s="51">
         <f t="shared" si="8"/>
         <v>-186521</v>
       </c>
-      <c r="W15" s="60">
+      <c r="W15" s="51">
         <f t="shared" si="8"/>
         <v>-347385</v>
       </c>
-      <c r="X15" s="54">
+      <c r="X15" s="53">
         <f t="shared" si="8"/>
         <v>-405138</v>
       </c>
-      <c r="Y15" s="52"/>
-    </row>
-    <row r="16" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="Y15" s="51"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49">
         <v>4466</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="49">
         <v>9568</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <v>9598</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="49">
         <v>10037</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="49">
         <v>9185</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="49">
         <v>8503</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="49">
         <v>7741</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="49">
         <v>8047</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="49">
         <v>2422</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="49">
         <v>6290</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="52">
         <v>4587</v>
       </c>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50">
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49">
         <v>1014</v>
       </c>
-      <c r="V16" s="50">
+      <c r="V16" s="49">
         <v>9598</v>
       </c>
-      <c r="W16" s="50">
+      <c r="W16" s="49">
         <f>SUM(I16:L16)</f>
         <v>35466</v>
       </c>
-      <c r="X16" s="53">
+      <c r="X16" s="52">
         <f>SUM(M16:P16)</f>
         <v>21346</v>
       </c>
-      <c r="Y16" s="50"/>
-    </row>
-    <row r="17" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="Y16" s="49"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49">
         <v>11</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <v>668</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <v>2223</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="49">
         <v>7065</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50">
+      <c r="G17" s="49"/>
+      <c r="H17" s="49">
         <f>1654+4970</f>
         <v>6624</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50">
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49">
         <v>1005</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="49">
         <f>3410+39581</f>
         <v>42991</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="49">
         <f>1195+221</f>
         <v>1416</v>
       </c>
-      <c r="N17" s="50">
+      <c r="N17" s="49">
         <f>7972+154</f>
         <v>8126</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="49">
         <f>3177+9250+74</f>
         <v>12501</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="52">
         <f>2416+201560</f>
         <v>203976</v>
       </c>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="50">
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49">
         <v>679</v>
       </c>
-      <c r="V17" s="50">
+      <c r="V17" s="49">
         <f>1654+4970</f>
         <v>6624</v>
       </c>
-      <c r="W17" s="50">
+      <c r="W17" s="49">
         <f>SUM(I17:L17)</f>
         <v>43996</v>
       </c>
-      <c r="X17" s="53">
+      <c r="X17" s="52">
         <f>SUM(M17:P17)</f>
         <v>226019</v>
       </c>
-      <c r="Y17" s="50"/>
+      <c r="Y17" s="49"/>
     </row>
     <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="51">
         <f>B15+B16+B17</f>
         <v>-1234</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <f t="shared" ref="C18:P18" si="9">C15+C16+C17</f>
         <v>-4615</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="51">
         <f t="shared" si="9"/>
         <v>-25127</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <f t="shared" si="9"/>
         <v>-22470</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="51">
         <f t="shared" si="9"/>
         <v>-31931</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="51">
         <f t="shared" si="9"/>
         <v>-26967</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="51">
         <f t="shared" si="9"/>
         <v>-65609</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="51">
         <f t="shared" si="9"/>
         <v>-71389</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J18" s="51">
         <f t="shared" si="9"/>
         <v>-53367</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="51">
         <f t="shared" si="9"/>
         <v>-82703</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="51">
         <f t="shared" si="9"/>
         <v>-60464</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="51">
         <f t="shared" si="9"/>
         <v>-49873</v>
       </c>
-      <c r="N18" s="52">
+      <c r="N18" s="51">
         <f t="shared" si="9"/>
         <v>-52468</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18" s="51">
         <f t="shared" si="9"/>
         <v>-35998</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="53">
         <f t="shared" si="9"/>
         <v>-19434</v>
       </c>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="52">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="51">
         <f t="shared" ref="U18:X18" si="10">U15+U16+U17</f>
         <v>-32282</v>
       </c>
-      <c r="V18" s="52">
+      <c r="V18" s="51">
         <f t="shared" si="10"/>
         <v>-170299</v>
       </c>
-      <c r="W18" s="60">
+      <c r="W18" s="51">
         <f t="shared" si="10"/>
         <v>-267923</v>
       </c>
-      <c r="X18" s="54">
+      <c r="X18" s="53">
         <f t="shared" si="10"/>
         <v>-157773</v>
       </c>
-      <c r="Y18" s="52"/>
+      <c r="Y18" s="51"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -15072,7 +16749,7 @@
       <c r="N19" s="10">
         <v>593189</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="10">
         <v>594255</v>
       </c>
       <c r="P19" s="15">
@@ -15086,7 +16763,7 @@
       <c r="V19" s="10">
         <v>549080</v>
       </c>
-      <c r="W19" s="57">
+      <c r="W19" s="10">
         <v>592031</v>
       </c>
       <c r="X19" s="15">
@@ -15146,7 +16823,7 @@
         <f t="shared" si="11"/>
         <v>-0.1461911802140633</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="2">
         <f t="shared" si="11"/>
         <v>7.4060798815323389E-2</v>
       </c>
@@ -15164,7 +16841,7 @@
         <f>V13/V19</f>
         <v>-0.38681612879726085</v>
       </c>
-      <c r="W20" s="61">
+      <c r="W20" s="2">
         <f>W13/W19</f>
         <v>-0.66308521006501353</v>
       </c>
@@ -15191,13 +16868,13 @@
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
-      <c r="O21" s="67"/>
+      <c r="O21" s="43"/>
       <c r="P21" s="47"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="61"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="2"/>
     </row>
@@ -15266,7 +16943,7 @@
         <v>0.23406704846635085</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" ref="U22:X22" si="13">1-U5/U3</f>
+        <f t="shared" ref="U22:W22" si="13">1-U5/U3</f>
         <v>0.30673713839530459</v>
       </c>
       <c r="V22" s="3">
@@ -15288,63 +16965,63 @@
         <v>33</v>
       </c>
       <c r="B23" s="4">
-        <f>B13/B3</f>
+        <f t="shared" ref="B23:P23" si="14">B13/B3</f>
         <v>-5.02575832292858E-2</v>
       </c>
       <c r="C23" s="4">
-        <f>C13/C3</f>
+        <f t="shared" si="14"/>
         <v>-9.0746586212308814E-2</v>
       </c>
       <c r="D23" s="4">
-        <f>D13/D3</f>
+        <f t="shared" si="14"/>
         <v>-0.29100191950659238</v>
       </c>
       <c r="E23" s="4">
-        <f>E13/E3</f>
+        <f t="shared" si="14"/>
         <v>-0.23122126067460658</v>
       </c>
       <c r="F23" s="4">
-        <f>F13/F3</f>
+        <f t="shared" si="14"/>
         <v>-0.40412997516267424</v>
       </c>
       <c r="G23" s="4">
-        <f>G13/G3</f>
+        <f t="shared" si="14"/>
         <v>-0.24080742654709988</v>
       </c>
       <c r="H23" s="4">
-        <f>H13/H3</f>
+        <f t="shared" si="14"/>
         <v>-0.42895253462417643</v>
       </c>
       <c r="I23" s="4">
-        <f>I13/I3</f>
+        <f t="shared" si="14"/>
         <v>-0.52627176777827256</v>
       </c>
       <c r="J23" s="4">
-        <f>J13/J3</f>
+        <f t="shared" si="14"/>
         <v>-0.40453365400824914</v>
       </c>
       <c r="K23" s="4">
-        <f>K13/K3</f>
+        <f t="shared" si="14"/>
         <v>-0.58980144897446263</v>
       </c>
       <c r="L23" s="4">
-        <f>L13/L3</f>
+        <f t="shared" si="14"/>
         <v>-0.64166854635306658</v>
       </c>
       <c r="M23" s="4">
-        <f>M13/M3</f>
+        <f t="shared" si="14"/>
         <v>-0.38629660865342841</v>
       </c>
       <c r="N23" s="4">
-        <f>N13/N3</f>
+        <f t="shared" si="14"/>
         <v>-0.44247322526494104</v>
       </c>
-      <c r="O23" s="62">
-        <f>O13/O3</f>
+      <c r="O23" s="4">
+        <f t="shared" si="14"/>
         <v>0.23460646605719768</v>
       </c>
       <c r="P23" s="7">
-        <f>P13/P3</f>
+        <f t="shared" si="14"/>
         <v>-1.4637151493476908</v>
       </c>
       <c r="U23" s="4">
@@ -15355,7 +17032,7 @@
         <f>V13/V3</f>
         <v>-0.3302181315008007</v>
       </c>
-      <c r="W23" s="62">
+      <c r="W23" s="4">
         <f>W13/W3</f>
         <v>-0.5435424333806862</v>
       </c>
@@ -15374,42 +17051,42 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
-        <f t="shared" ref="F24:N24" si="14">F3/B3-1</f>
+        <f t="shared" ref="F24:N24" si="15">F3/B3-1</f>
         <v>0.53344385105289116</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.49162030658690981</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.46264042292079677</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.18660211921286374</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21763108018419297</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.9939554079807342E-2</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.9175742907086262E-2</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.17726523293177521</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.10131042156014347</v>
       </c>
-      <c r="O24" s="62">
+      <c r="O24" s="4">
         <f>O3/K3-1</f>
         <v>2.4963666364341774E-2</v>
       </c>
@@ -15448,55 +17125,55 @@
         <v>-1.294736068996632E-2</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:P25" si="15">C18/C3</f>
+        <f t="shared" ref="C25:O25" si="16">C18/C3</f>
         <v>-4.0241711864111192E-2</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.19766984486610656</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.16044040784851341</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.21847951775903005</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.15764459669593481</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.352878848998252</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.42957288820959649</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.29988536621000461</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.4518647623834865</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.30996370496442266</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.25491579135679421</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.26771163393490383</v>
       </c>
       <c r="O25" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.19189210799861403</v>
       </c>
       <c r="P25" s="6">
@@ -15504,11 +17181,11 @@
         <v>-9.5208234331597433E-2</v>
       </c>
       <c r="V25" s="41">
-        <f t="shared" ref="V25:X25" si="16">V18/V3</f>
+        <f t="shared" ref="V25:W25" si="17">V18/V3</f>
         <v>-0.26477246225843065</v>
       </c>
       <c r="W25" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.37096220359493687</v>
       </c>
       <c r="X25" s="6">
@@ -15525,7 +17202,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
-        <f t="shared" ref="F26:P26" si="17">F13/B13-1</f>
+        <f t="shared" ref="F26:P26" si="18">F13/B13-1</f>
         <v>11.330688935281836</v>
       </c>
       <c r="G26" s="4">
@@ -15533,53 +17210,53 @@
         <v>2.9582012107235514</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1560109215755183</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7007689219652287</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21884735202492211</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.6205666011215496</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.56945820219929022</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-0.13585794486559422</v>
       </c>
       <c r="N26" s="4">
         <f>N13/J13-1</f>
         <v>0.204597860814002</v>
       </c>
-      <c r="O26" s="62">
-        <f t="shared" si="17"/>
+      <c r="O26" s="4">
+        <f t="shared" si="18"/>
         <v>-1.4077017851022242</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3869728127571523</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3">
-        <f t="shared" ref="V26:X26" si="18">-(V13/U13-1)</f>
+        <f t="shared" ref="V26:X26" si="19">-(V13/U13-1)</f>
         <v>-2.5187124136445718</v>
       </c>
       <c r="W26" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.84830479347247789</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-6.2391897434068477E-2</v>
       </c>
       <c r="Y26" s="3"/>
@@ -15605,19 +17282,19 @@
         <v>44</v>
       </c>
       <c r="B29" s="11">
-        <f t="shared" ref="B29:E29" si="19">B30+B31+B32-B44-B45-B48-B47-B46-B49-B53</f>
+        <f t="shared" ref="B29:E29" si="20">B30+B31+B32-B44-B45-B48-B47-B46-B49-B53</f>
         <v>0</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-197156</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F29" s="11">
@@ -15625,23 +17302,23 @@
         <v>696398</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" ref="G29:P29" si="20">G30+G31+G32-G44-G45-G48-G47-G46-G49-G53</f>
+        <f t="shared" ref="G29:P29" si="21">G30+G31+G32-G44-G45-G48-G47-G46-G49-G53</f>
         <v>563269</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>346536</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>213236</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L29" s="11">
@@ -15649,31 +17326,31 @@
         <v>-75192</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-376432</v>
       </c>
-      <c r="O29" s="58">
-        <f t="shared" si="20"/>
+      <c r="O29" s="11">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" ref="U29:W29" si="21">U30+U31+U32-U44-U45-U48-U47-U46-U49-U53</f>
+        <f t="shared" ref="U29:W29" si="22">U30+U31+U32-U44-U45-U48-U47-U46-U49-U53</f>
         <v>-197156</v>
       </c>
       <c r="V29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>346536</v>
       </c>
-      <c r="W29" s="58">
-        <f t="shared" si="21"/>
+      <c r="W29" s="11">
+        <f t="shared" si="22"/>
         <v>-75192</v>
       </c>
       <c r="X29" s="16"/>
@@ -15709,7 +17386,7 @@
       <c r="N30" s="10">
         <v>340730</v>
       </c>
-      <c r="O30" s="57"/>
+      <c r="O30" s="10"/>
       <c r="U30" s="10">
         <f>D30</f>
         <v>105364</v>
@@ -15718,7 +17395,7 @@
         <f>H30</f>
         <v>295572</v>
       </c>
-      <c r="W30" s="57">
+      <c r="W30" s="10">
         <f>L30</f>
         <v>82644</v>
       </c>
@@ -15750,16 +17427,16 @@
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="57"/>
+      <c r="O31" s="10"/>
       <c r="U31" s="10">
-        <f t="shared" ref="U31:U55" si="22">D31</f>
+        <f t="shared" ref="U31:U55" si="23">D31</f>
         <v>0</v>
       </c>
       <c r="V31" s="10">
-        <f t="shared" ref="V31:V55" si="23">H31</f>
+        <f t="shared" ref="V31:V55" si="24">H31</f>
         <v>249937</v>
       </c>
-      <c r="W31" s="57">
+      <c r="W31" s="10">
         <f>L31</f>
         <v>142703</v>
       </c>
@@ -15795,17 +17472,17 @@
       <c r="N32" s="10">
         <v>22244</v>
       </c>
-      <c r="O32" s="57"/>
+      <c r="O32" s="10"/>
       <c r="U32" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11509</v>
       </c>
       <c r="V32" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>27711</v>
       </c>
-      <c r="W32" s="57">
-        <f t="shared" ref="W32:W55" si="24">L32</f>
+      <c r="W32" s="10">
+        <f t="shared" ref="W32:W55" si="25">L32</f>
         <v>23413</v>
       </c>
     </row>
@@ -15840,17 +17517,17 @@
       <c r="N33" s="10">
         <v>33925</v>
       </c>
-      <c r="O33" s="57"/>
+      <c r="O33" s="10"/>
       <c r="U33" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12363</v>
       </c>
       <c r="V33" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>32229</v>
       </c>
-      <c r="W33" s="57">
-        <f t="shared" si="24"/>
+      <c r="W33" s="10">
+        <f t="shared" si="25"/>
         <v>17818</v>
       </c>
     </row>
@@ -15885,17 +17562,17 @@
       <c r="N34" s="10">
         <v>307</v>
       </c>
-      <c r="O34" s="57"/>
+      <c r="O34" s="10"/>
       <c r="U34" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>514</v>
       </c>
       <c r="V34" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>435</v>
       </c>
-      <c r="W34" s="57">
-        <f t="shared" si="24"/>
+      <c r="W34" s="10">
+        <f t="shared" si="25"/>
         <v>243</v>
       </c>
     </row>
@@ -15930,17 +17607,17 @@
       <c r="N35" s="10">
         <v>102835</v>
       </c>
-      <c r="O35" s="57"/>
+      <c r="O35" s="10"/>
       <c r="U35" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>71297</v>
       </c>
       <c r="V35" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>105519</v>
       </c>
-      <c r="W35" s="57">
-        <f t="shared" si="24"/>
+      <c r="W35" s="10">
+        <f t="shared" si="25"/>
         <v>100955</v>
       </c>
     </row>
@@ -15975,17 +17652,17 @@
       <c r="N36" s="10">
         <v>102825</v>
       </c>
-      <c r="O36" s="57"/>
+      <c r="O36" s="10"/>
       <c r="U36" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>39115</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>95661</v>
       </c>
-      <c r="W36" s="57">
-        <f t="shared" si="24"/>
+      <c r="W36" s="10">
+        <f t="shared" si="25"/>
         <v>114475</v>
       </c>
     </row>
@@ -15994,72 +17671,72 @@
         <v>80</v>
       </c>
       <c r="B37" s="11">
-        <f t="shared" ref="B37:O37" si="25">SUM(B30:B36)</f>
+        <f t="shared" ref="B37:O37" si="26">SUM(B30:B36)</f>
         <v>0</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>240162</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1044810</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>941751</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>807064</v>
       </c>
       <c r="I37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>666188</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>482251</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>602866</v>
       </c>
-      <c r="O37" s="58">
-        <f t="shared" si="25"/>
+      <c r="O37" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P37" s="16"/>
       <c r="U37" s="11">
-        <f t="shared" ref="U37" si="26">SUM(U30:U36)</f>
+        <f t="shared" ref="U37" si="27">SUM(U30:U36)</f>
         <v>240162</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" ref="V37" si="27">SUM(V30:V36)</f>
+        <f t="shared" ref="V37" si="28">SUM(V30:V36)</f>
         <v>807064</v>
       </c>
-      <c r="W37" s="58">
-        <f t="shared" ref="W37" si="28">SUM(W30:W36)</f>
+      <c r="W37" s="11">
+        <f t="shared" ref="W37" si="29">SUM(W30:W36)</f>
         <v>482251</v>
       </c>
       <c r="X37" s="16"/>
@@ -16095,17 +17772,17 @@
       <c r="N38" s="10">
         <v>122171</v>
       </c>
-      <c r="O38" s="57"/>
+      <c r="O38" s="10"/>
       <c r="U38" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156463</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>145925</v>
       </c>
-      <c r="W38" s="57">
-        <f t="shared" si="24"/>
+      <c r="W38" s="10">
+        <f t="shared" si="25"/>
         <v>127688</v>
       </c>
     </row>
@@ -16140,17 +17817,17 @@
       <c r="N39" s="10">
         <v>504743</v>
       </c>
-      <c r="O39" s="57"/>
+      <c r="O39" s="10"/>
       <c r="U39" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>237625</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>509648</v>
       </c>
-      <c r="W39" s="57">
-        <f t="shared" si="24"/>
+      <c r="W39" s="10">
+        <f t="shared" si="25"/>
         <v>492952</v>
       </c>
     </row>
@@ -16185,17 +17862,17 @@
       <c r="N40" s="10">
         <v>109379</v>
       </c>
-      <c r="O40" s="57"/>
+      <c r="O40" s="10"/>
       <c r="U40" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>38103</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>158448</v>
       </c>
-      <c r="W40" s="57">
-        <f t="shared" si="24"/>
+      <c r="W40" s="10">
+        <f t="shared" si="25"/>
         <v>108598</v>
       </c>
     </row>
@@ -16230,17 +17907,17 @@
       <c r="N41" s="10">
         <v>47240</v>
       </c>
-      <c r="O41" s="57"/>
+      <c r="O41" s="10"/>
       <c r="U41" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6550</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5534</v>
       </c>
-      <c r="W41" s="57">
-        <f t="shared" si="24"/>
+      <c r="W41" s="10">
+        <f t="shared" si="25"/>
         <v>7848</v>
       </c>
     </row>
@@ -16275,18 +17952,18 @@
       <c r="N42" s="10">
         <v>14717</v>
       </c>
-      <c r="O42" s="57"/>
+      <c r="O42" s="10"/>
       <c r="P42" s="16"/>
       <c r="U42" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>26</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2293</v>
       </c>
-      <c r="W42" s="57">
-        <f t="shared" si="24"/>
+      <c r="W42" s="10">
+        <f t="shared" si="25"/>
         <v>5860</v>
       </c>
       <c r="X42" s="16"/>
@@ -16296,59 +17973,59 @@
         <v>29</v>
       </c>
       <c r="B43" s="11">
-        <f t="shared" ref="B43:O43" si="29">SUM(B37:B42)</f>
+        <f t="shared" ref="B43:O43" si="30">SUM(B37:B42)</f>
         <v>0</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>678929</v>
       </c>
       <c r="E43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1656430</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1650419</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1628912</v>
       </c>
       <c r="I43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1529282</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1225197</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1401116</v>
       </c>
-      <c r="O43" s="58">
-        <f t="shared" si="29"/>
+      <c r="O43" s="11">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U43" s="11">
@@ -16359,7 +18036,7 @@
         <f>SUM(V37:V42)</f>
         <v>1628912</v>
       </c>
-      <c r="W43" s="58">
+      <c r="W43" s="11">
         <f>SUM(W37:W42)</f>
         <v>1225197</v>
       </c>
@@ -16395,17 +18072,17 @@
       <c r="N44" s="10">
         <v>116475</v>
       </c>
-      <c r="O44" s="57"/>
+      <c r="O44" s="10"/>
       <c r="U44" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>59945</v>
       </c>
       <c r="V44" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>117473</v>
       </c>
-      <c r="W44" s="57">
-        <f t="shared" si="24"/>
+      <c r="W44" s="10">
+        <f t="shared" si="25"/>
         <v>123037</v>
       </c>
     </row>
@@ -16440,17 +18117,17 @@
       <c r="N45" s="10">
         <v>11644</v>
       </c>
-      <c r="O45" s="57"/>
+      <c r="O45" s="10"/>
       <c r="U45" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4632</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9614</v>
       </c>
-      <c r="W45" s="57">
-        <f t="shared" si="24"/>
+      <c r="W45" s="10">
+        <f t="shared" si="25"/>
         <v>11823</v>
       </c>
     </row>
@@ -16485,17 +18162,17 @@
       <c r="N46" s="10">
         <v>4299</v>
       </c>
-      <c r="O46" s="57"/>
+      <c r="O46" s="10"/>
       <c r="U46" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>852</v>
       </c>
       <c r="V46" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>567</v>
       </c>
-      <c r="W46" s="57">
-        <f t="shared" si="24"/>
+      <c r="W46" s="10">
+        <f t="shared" si="25"/>
         <v>5515</v>
       </c>
     </row>
@@ -16530,17 +18207,17 @@
       <c r="N47" s="10">
         <v>81201</v>
       </c>
-      <c r="O47" s="57"/>
+      <c r="O47" s="10"/>
       <c r="U47" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>45295</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>93043</v>
       </c>
-      <c r="W47" s="57">
-        <f t="shared" si="24"/>
+      <c r="W47" s="10">
+        <f t="shared" si="25"/>
         <v>82516</v>
       </c>
     </row>
@@ -16573,17 +18250,17 @@
       <c r="N48" s="10">
         <v>400244</v>
       </c>
-      <c r="O48" s="57"/>
+      <c r="O48" s="10"/>
       <c r="U48" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>106118</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W48" s="57">
-        <f t="shared" si="24"/>
+      <c r="W48" s="10">
+        <f t="shared" si="25"/>
         <v>48471</v>
       </c>
     </row>
@@ -16600,7 +18277,7 @@
       <c r="F49" s="10">
         <v>2591</v>
       </c>
-      <c r="G49" s="55">
+      <c r="G49" s="54">
         <v>2880</v>
       </c>
       <c r="H49" s="10">
@@ -16618,17 +18295,17 @@
       <c r="N49" s="10">
         <v>10332</v>
       </c>
-      <c r="O49" s="57"/>
+      <c r="O49" s="10"/>
       <c r="U49" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5532</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5987</v>
       </c>
-      <c r="W49" s="57">
-        <f t="shared" si="24"/>
+      <c r="W49" s="10">
+        <f t="shared" si="25"/>
         <v>49922</v>
       </c>
     </row>
@@ -16663,17 +18340,17 @@
       <c r="N50" s="10">
         <v>14720</v>
       </c>
-      <c r="O50" s="57"/>
+      <c r="O50" s="10"/>
       <c r="U50" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6261</v>
       </c>
       <c r="V50" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16703</v>
       </c>
-      <c r="W50" s="57">
-        <f t="shared" si="24"/>
+      <c r="W50" s="10">
+        <f t="shared" si="25"/>
         <v>16823</v>
       </c>
     </row>
@@ -16682,31 +18359,31 @@
         <v>81</v>
       </c>
       <c r="B51" s="11">
-        <f t="shared" ref="B51:O51" si="30">SUM(B44:B50)</f>
+        <f t="shared" ref="B51:O51" si="31">SUM(B44:B50)</f>
         <v>0</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>228635</v>
       </c>
       <c r="E51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>180493</v>
       </c>
       <c r="G51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>186993</v>
       </c>
       <c r="H51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>243387</v>
       </c>
       <c r="I51" s="11">
@@ -16714,27 +18391,27 @@
         <v>240110</v>
       </c>
       <c r="J51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>338107</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>638915</v>
       </c>
-      <c r="O51" s="58">
-        <f t="shared" si="30"/>
+      <c r="O51" s="11">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P51" s="14"/>
@@ -16743,15 +18420,15 @@
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11">
-        <f t="shared" ref="U51" si="31">SUM(U44:U50)</f>
+        <f t="shared" ref="U51" si="32">SUM(U44:U50)</f>
         <v>228635</v>
       </c>
       <c r="V51" s="11">
-        <f t="shared" ref="V51" si="32">SUM(V44:V50)</f>
+        <f t="shared" ref="V51" si="33">SUM(V44:V50)</f>
         <v>243387</v>
       </c>
-      <c r="W51" s="58">
-        <f t="shared" ref="W51" si="33">SUM(W44:W50)</f>
+      <c r="W51" s="11">
+        <f t="shared" ref="W51" si="34">SUM(W44:W50)</f>
         <v>338107</v>
       </c>
       <c r="X51" s="16"/>
@@ -16787,17 +18464,17 @@
       <c r="N52" s="10">
         <v>87418</v>
       </c>
-      <c r="O52" s="57"/>
+      <c r="O52" s="10"/>
       <c r="U52" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23883</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>126516</v>
       </c>
-      <c r="W52" s="57">
-        <f t="shared" si="24"/>
+      <c r="W52" s="10">
+        <f t="shared" si="25"/>
         <v>82285</v>
       </c>
     </row>
@@ -16832,17 +18509,17 @@
       <c r="N53" s="10">
         <v>115211</v>
       </c>
-      <c r="O53" s="57"/>
+      <c r="O53" s="10"/>
       <c r="U53" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>91655</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W53" s="57">
-        <f t="shared" si="24"/>
+      <c r="W53" s="10">
+        <f t="shared" si="25"/>
         <v>2668</v>
       </c>
     </row>
@@ -16882,17 +18559,17 @@
         <f>6538+6600</f>
         <v>13138</v>
       </c>
-      <c r="O54" s="57"/>
+      <c r="O54" s="10"/>
       <c r="U54" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7354</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11033</v>
       </c>
-      <c r="W54" s="57">
-        <f t="shared" si="24"/>
+      <c r="W54" s="10">
+        <f t="shared" si="25"/>
         <v>10994</v>
       </c>
     </row>
@@ -16927,17 +18604,17 @@
       <c r="N55" s="10">
         <v>637</v>
       </c>
-      <c r="O55" s="57"/>
+      <c r="O55" s="10"/>
       <c r="U55" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1307</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2677</v>
       </c>
-      <c r="W55" s="57">
-        <f t="shared" si="24"/>
+      <c r="W55" s="10">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -16946,43 +18623,43 @@
         <v>30</v>
       </c>
       <c r="B56" s="11">
-        <f t="shared" ref="B56:O56" si="34">SUM(B51:B55)</f>
+        <f t="shared" ref="B56:O56" si="35">SUM(B51:B55)</f>
         <v>0</v>
       </c>
       <c r="C56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>352834</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>261457</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>310276</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>383613</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>384359</v>
       </c>
       <c r="J56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L56" s="11">
@@ -16990,42 +18667,40 @@
         <v>434054</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>855319</v>
       </c>
-      <c r="O56" s="58">
-        <f t="shared" si="34"/>
+      <c r="O56" s="11">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" ref="U56:W56" si="35">SUM(U51:U55)</f>
+        <f t="shared" ref="U56:W56" si="36">SUM(U51:U55)</f>
         <v>352834</v>
       </c>
       <c r="V56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>383613</v>
       </c>
-      <c r="W56" s="58">
-        <f t="shared" si="35"/>
+      <c r="W56" s="11">
+        <f t="shared" si="36"/>
         <v>434054</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="58"/>
+      <c r="W57" s="11"/>
     </row>
     <row r="59" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O59" s="63"/>
       <c r="P59" s="16"/>
-      <c r="W59" s="63"/>
       <c r="X59" s="16"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -17117,18 +18792,14 @@
       <c r="A77" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O77" s="64"/>
-      <c r="P77" s="65"/>
-      <c r="W77" s="64"/>
-      <c r="X77" s="65"/>
+      <c r="P77" s="55"/>
+      <c r="X77" s="55"/>
     </row>
     <row r="78" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O78" s="63"/>
       <c r="P78" s="16"/>
-      <c r="W78" s="63"/>
       <c r="X78" s="16"/>
     </row>
   </sheetData>
@@ -17173,7 +18844,7 @@
   <dimension ref="A1:L1147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24570,14 +26241,2838 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="121"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12">
+        <v>45390</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1.05</v>
+      </c>
+      <c r="D2" s="56">
+        <f>C2/C3-1</f>
+        <v>-3.669724770642202E-2</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12">
+        <v>45383</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D3" s="56">
+        <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
+        <v>-3.5398230088495408E-2</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>45376</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D4" s="56">
+        <f>C4/C5-1</f>
+        <v>0.1188118811881187</v>
+      </c>
+      <c r="H4" s="65">
+        <f>$I$19-3*$I$23</f>
+        <v>-0.3624160858660202</v>
+      </c>
+      <c r="I4" s="66">
+        <f>H4</f>
+        <v>-0.3624160858660202</v>
+      </c>
+      <c r="J4" s="67">
+        <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="67" t="str">
+        <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
+        <v>Less than -36,24%</v>
+      </c>
+      <c r="L4" s="68">
+        <f>J4/$I$31</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="69">
+        <f>L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>45369</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="D5" s="56">
+        <f t="shared" si="0"/>
+        <v>1.8145161290322509E-2</v>
+      </c>
+      <c r="H5" s="70">
+        <f>$I$19-2.4*$I$23</f>
+        <v>-0.29270370032461013</v>
+      </c>
+      <c r="I5" s="71">
+        <f>H5</f>
+        <v>-0.29270370032461013</v>
+      </c>
+      <c r="J5" s="72">
+        <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="73" t="str">
+        <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
+        <v>-36,24% to -29,27%</v>
+      </c>
+      <c r="L5" s="74">
+        <f>J5/$I$31</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="75">
+        <f>M4+L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>45362</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D6" s="56">
+        <f t="shared" si="0"/>
+        <v>-1.7821782178217838E-2</v>
+      </c>
+      <c r="H6" s="70">
+        <f>$I$19-1.8*$I$23</f>
+        <v>-0.22299131478320014</v>
+      </c>
+      <c r="I6" s="71">
+        <f t="shared" ref="I6:I14" si="2">H6</f>
+        <v>-0.22299131478320014</v>
+      </c>
+      <c r="J6" s="72">
+        <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>-29,27% to -22,30%</v>
+      </c>
+      <c r="L6" s="74">
+        <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
+        <v>1.3245033112582781E-2</v>
+      </c>
+      <c r="M6" s="75">
+        <f t="shared" ref="M6:M15" si="5">M5+L6</f>
+        <v>1.3245033112582781E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>45355</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="D7" s="56">
+        <f t="shared" si="0"/>
+        <v>-6.4814814814814881E-2</v>
+      </c>
+      <c r="H7" s="70">
+        <f>$I$19-1.2*$I$23</f>
+        <v>-0.1532789292417901</v>
+      </c>
+      <c r="I7" s="71">
+        <f t="shared" si="2"/>
+        <v>-0.1532789292417901</v>
+      </c>
+      <c r="J7" s="72">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K7" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>-22,30% to -15,33%</v>
+      </c>
+      <c r="L7" s="74">
+        <f t="shared" si="4"/>
+        <v>5.9602649006622516E-2</v>
+      </c>
+      <c r="M7" s="75">
+        <f>M6+L7</f>
+        <v>7.2847682119205295E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>45348</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1.08</v>
+      </c>
+      <c r="D8" s="56">
+        <f t="shared" si="0"/>
+        <v>-6.0869565217391175E-2</v>
+      </c>
+      <c r="H8" s="70">
+        <f>$I$19-0.6*$I$23</f>
+        <v>-8.3566543700380108E-2</v>
+      </c>
+      <c r="I8" s="71">
+        <f t="shared" si="2"/>
+        <v>-8.3566543700380108E-2</v>
+      </c>
+      <c r="J8" s="72">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K8" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>-15,33% to -8,36%</v>
+      </c>
+      <c r="L8" s="74">
+        <f t="shared" si="4"/>
+        <v>0.15894039735099338</v>
+      </c>
+      <c r="M8" s="75">
+        <f t="shared" si="5"/>
+        <v>0.23178807947019869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>45341</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D9" s="56">
+        <f t="shared" si="0"/>
+        <v>-6.1224489795918546E-2</v>
+      </c>
+      <c r="H9" s="70">
+        <f>$I$19</f>
+        <v>-1.3854158158970099E-2</v>
+      </c>
+      <c r="I9" s="71">
+        <f t="shared" si="2"/>
+        <v>-1.3854158158970099E-2</v>
+      </c>
+      <c r="J9" s="72">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="K9" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>-8,36% to -1,39%</v>
+      </c>
+      <c r="L9" s="74">
+        <f t="shared" si="4"/>
+        <v>0.33774834437086093</v>
+      </c>
+      <c r="M9" s="75">
+        <f t="shared" si="5"/>
+        <v>0.56953642384105962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>45334</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D10" s="56">
+        <f t="shared" si="0"/>
+        <v>8.4070796460177233E-2</v>
+      </c>
+      <c r="H10" s="70">
+        <f>$I$19+0.6*$I$23</f>
+        <v>5.5858227382439903E-2</v>
+      </c>
+      <c r="I10" s="71">
+        <f t="shared" si="2"/>
+        <v>5.5858227382439903E-2</v>
+      </c>
+      <c r="J10" s="72">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K10" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>-1,39% to 5,59%</v>
+      </c>
+      <c r="L10" s="74">
+        <f t="shared" si="4"/>
+        <v>0.23841059602649006</v>
+      </c>
+      <c r="M10" s="75">
+        <f t="shared" si="5"/>
+        <v>0.80794701986754969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>45327</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D11" s="56">
+        <f t="shared" si="0"/>
+        <v>-1.7391304347826098E-2</v>
+      </c>
+      <c r="H11" s="70">
+        <f>$I$19+1.2*$I$23</f>
+        <v>0.12557061292384991</v>
+      </c>
+      <c r="I11" s="71">
+        <f t="shared" si="2"/>
+        <v>0.12557061292384991</v>
+      </c>
+      <c r="J11" s="72">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K11" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>5,59% to 12,56%</v>
+      </c>
+      <c r="L11" s="74">
+        <f t="shared" si="4"/>
+        <v>9.9337748344370855E-2</v>
+      </c>
+      <c r="M11" s="75">
+        <f t="shared" si="5"/>
+        <v>0.9072847682119205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>45320</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D12" s="56">
+        <f t="shared" si="0"/>
+        <v>8.7719298245614308E-3</v>
+      </c>
+      <c r="H12" s="70">
+        <f>$I$19+1.8*$I$23</f>
+        <v>0.19528299846525995</v>
+      </c>
+      <c r="I12" s="71">
+        <f t="shared" si="2"/>
+        <v>0.19528299846525995</v>
+      </c>
+      <c r="J12" s="72">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K12" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>12,56% to 19,53%</v>
+      </c>
+      <c r="L12" s="74">
+        <f t="shared" si="4"/>
+        <v>4.6357615894039736E-2</v>
+      </c>
+      <c r="M12" s="75">
+        <f t="shared" si="5"/>
+        <v>0.95364238410596025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>45313</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D13" s="56">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285632E-2</v>
+      </c>
+      <c r="H13" s="70">
+        <f>$I$19+2.4*$I$23</f>
+        <v>0.26499538400666989</v>
+      </c>
+      <c r="I13" s="71">
+        <f t="shared" si="2"/>
+        <v>0.26499538400666989</v>
+      </c>
+      <c r="J13" s="72">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>19,53% to 26,50%</v>
+      </c>
+      <c r="L13" s="74">
+        <f t="shared" si="4"/>
+        <v>1.9867549668874173E-2</v>
+      </c>
+      <c r="M13" s="75">
+        <f t="shared" si="5"/>
+        <v>0.97350993377483441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>45306</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1.05</v>
+      </c>
+      <c r="D14" s="56">
+        <f t="shared" si="0"/>
+        <v>-4.5454545454545525E-2</v>
+      </c>
+      <c r="H14" s="70">
+        <f>$I$19+3*$I$23</f>
+        <v>0.33470776954807996</v>
+      </c>
+      <c r="I14" s="71">
+        <f t="shared" si="2"/>
+        <v>0.33470776954807996</v>
+      </c>
+      <c r="J14" s="72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>26,50% to 33,47%</v>
+      </c>
+      <c r="L14" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="75">
+        <f t="shared" si="5"/>
+        <v>0.97350993377483441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15" s="56">
+        <f t="shared" si="0"/>
+        <v>-6.7796610169491456E-2</v>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="77">
+        <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="77" t="str">
+        <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
+        <v>Greater than 33,47%</v>
+      </c>
+      <c r="L15" s="78">
+        <f t="shared" si="4"/>
+        <v>2.6490066225165563E-2</v>
+      </c>
+      <c r="M15" s="78">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>45292</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1.18</v>
+      </c>
+      <c r="D16" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="79"/>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>45285</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1.18</v>
+      </c>
+      <c r="D17" s="56">
+        <f t="shared" si="0"/>
+        <v>-4.8387096774193616E-2</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="123"/>
+      <c r="M17" s="80"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>45278</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1.24</v>
+      </c>
+      <c r="D18" s="56">
+        <f t="shared" si="0"/>
+        <v>1.6393442622950838E-2</v>
+      </c>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>45271</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1.22</v>
+      </c>
+      <c r="D19" s="56">
+        <f t="shared" si="0"/>
+        <v>9.9099099099098975E-2</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="82">
+        <f>AVERAGE(D:D)</f>
+        <v>-1.3854158158970099E-2</v>
+      </c>
+      <c r="M19" s="80"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>45264</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D20" s="56">
+        <f t="shared" si="0"/>
+        <v>7.7669902912621325E-2</v>
+      </c>
+      <c r="H20" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="82">
+        <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
+        <v>9.4551891311674859E-3</v>
+      </c>
+      <c r="M20" s="80"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>45257</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1.03</v>
+      </c>
+      <c r="D21" s="56">
+        <f t="shared" si="0"/>
+        <v>0.34816753926701582</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="82">
+        <f>MEDIAN(D:D)</f>
+        <v>-3.3441208198489725E-2</v>
+      </c>
+      <c r="M21" s="80"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>45250</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D22" s="56">
+        <f t="shared" si="0"/>
+        <v>-7.2815533980582492E-2</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="82">
+        <f>MODE(D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="80"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>45243</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D23" s="56">
+        <f t="shared" si="0"/>
+        <v>0.52592592592592569</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="82">
+        <f>_xlfn.STDEV.S(D:D)</f>
+        <v>0.11618730923568335</v>
+      </c>
+      <c r="M23" s="80"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>45236</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="D24" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.14285714285714279</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="82">
+        <f>_xlfn.VAR.S(D:D)</f>
+        <v>1.3499490827428311E-2</v>
+      </c>
+      <c r="M24" s="80"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>45229</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="D25" s="56">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="83">
+        <f>KURT(D:D)</f>
+        <v>4.8499814316805407</v>
+      </c>
+      <c r="M25" s="80"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
+        <v>45222</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D26" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.16819012797074961</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="83">
+        <f>SKEW(D:D)</f>
+        <v>1.5711322777013221</v>
+      </c>
+      <c r="M26" s="80"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>45215</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D27" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.15062111801242228</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="82">
+        <f>I29-I28</f>
+        <v>0.7666666666666665</v>
+      </c>
+      <c r="M27" s="80"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
+        <v>45208</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D28" s="56">
+        <f t="shared" si="0"/>
+        <v>-6.6666666666666541E-2</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="82">
+        <f>MIN(D:D)</f>
+        <v>-0.24074074074074081</v>
+      </c>
+      <c r="M28" s="80"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>45201</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="D29" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.22991071428571441</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="82">
+        <f>MAX(D:D)</f>
+        <v>0.52592592592592569</v>
+      </c>
+      <c r="M29" s="80"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>45194</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D30" s="56">
+        <f t="shared" si="0"/>
+        <v>-3.3441208198489725E-2</v>
+      </c>
+      <c r="H30" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="83">
+        <f>SUM(D:D)</f>
+        <v>-2.091977882004485</v>
+      </c>
+      <c r="M30" s="80"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>45187</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D31" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.1086538461538461</v>
+      </c>
+      <c r="H31" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="85">
+        <f>COUNT(D:D)</f>
+        <v>151</v>
+      </c>
+      <c r="M31" s="80"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>45180</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1.04</v>
+      </c>
+      <c r="D32" s="56">
+        <f t="shared" si="0"/>
+        <v>-7.1428571428571508E-2</v>
+      </c>
+      <c r="H32" s="86"/>
+      <c r="M32" s="80"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
+        <v>45173</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D33" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.11111111111111105</v>
+      </c>
+      <c r="H33" s="87"/>
+      <c r="I33" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="J33" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="K33" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="L33" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="M33" s="80"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="12">
+        <v>45166</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1.26</v>
+      </c>
+      <c r="D34" s="56">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="H34" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="74">
+        <f>AVERAGEIF(D:D,"&gt;0")</f>
+        <v>0.10010576389818351</v>
+      </c>
+      <c r="J34" s="72">
+        <f>COUNTIF(D:D,"&gt;0")</f>
+        <v>53</v>
+      </c>
+      <c r="K34" s="74">
+        <f>J34/$I$31</f>
+        <v>0.35099337748344372</v>
+      </c>
+      <c r="L34" s="75">
+        <f>K34*I34</f>
+        <v>3.5136460176183618E-2</v>
+      </c>
+      <c r="M34" s="80"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
+        <v>45159</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="56">
+        <f t="shared" si="0"/>
+        <v>-3.8461538461538547E-2</v>
+      </c>
+      <c r="H35" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="I35" s="74">
+        <f>AVERAGEIF(D:D,"&lt;0")</f>
+        <v>-7.8697695410725674E-2</v>
+      </c>
+      <c r="J35" s="72">
+        <f>COUNTIF(D:D,"&lt;0")</f>
+        <v>94</v>
+      </c>
+      <c r="K35" s="74">
+        <f>J35/$I$31</f>
+        <v>0.62251655629139069</v>
+      </c>
+      <c r="L35" s="75">
+        <f t="shared" ref="L35:L36" si="6">K35*I35</f>
+        <v>-4.8990618335153731E-2</v>
+      </c>
+      <c r="M35" s="80"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>45152</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="D36" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.10344827586206895</v>
+      </c>
+      <c r="H36" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="77">
+        <v>0</v>
+      </c>
+      <c r="J36" s="77">
+        <f>COUNTIF(D:D,"0")</f>
+        <v>4</v>
+      </c>
+      <c r="K36" s="92">
+        <f>J36/$I$31</f>
+        <v>2.6490066225165563E-2</v>
+      </c>
+      <c r="L36" s="78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="80"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
+        <v>45145</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1.45</v>
+      </c>
+      <c r="D37" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="86"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="80"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
+        <v>45138</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1.45</v>
+      </c>
+      <c r="D38" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.11585365853658536</v>
+      </c>
+      <c r="H38" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="K38" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38" s="89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
+        <v>45131</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1.64</v>
+      </c>
+      <c r="D39" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.24074074074074081</v>
+      </c>
+      <c r="H39" s="94">
+        <v>1</v>
+      </c>
+      <c r="I39" s="74">
+        <f>$I$19+($H39*$I$23)</f>
+        <v>0.10233315107671326</v>
+      </c>
+      <c r="J39" s="74">
+        <f>$I$19-($H39*$I$23)</f>
+        <v>-0.13004146739465344</v>
+      </c>
+      <c r="K39" s="72">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
+        <v>118</v>
+      </c>
+      <c r="L39" s="74">
+        <f>K39/$I$31</f>
+        <v>0.7814569536423841</v>
+      </c>
+      <c r="M39" s="75">
+        <v>0.68269999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
+        <v>45124</v>
+      </c>
+      <c r="C40" s="17">
+        <v>2.16</v>
+      </c>
+      <c r="D40" s="56">
+        <f t="shared" si="0"/>
+        <v>3.3492822966507241E-2</v>
+      </c>
+      <c r="H40" s="94">
+        <v>2</v>
+      </c>
+      <c r="I40" s="74">
+        <f>$I$19+($H40*$I$23)</f>
+        <v>0.21852046031239661</v>
+      </c>
+      <c r="J40" s="74">
+        <f>$I$19-($H40*$I$23)</f>
+        <v>-0.24622877663033679</v>
+      </c>
+      <c r="K40" s="72">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
+        <v>146</v>
+      </c>
+      <c r="L40" s="74">
+        <f>K40/$I$31</f>
+        <v>0.9668874172185431</v>
+      </c>
+      <c r="M40" s="75">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
+        <v>45117</v>
+      </c>
+      <c r="C41" s="17">
+        <v>2.09</v>
+      </c>
+      <c r="D41" s="56">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H41" s="94">
+        <v>3</v>
+      </c>
+      <c r="I41" s="74">
+        <f>$I$19+($H41*$I$23)</f>
+        <v>0.33470776954807996</v>
+      </c>
+      <c r="J41" s="74">
+        <f>$I$19-($H41*$I$23)</f>
+        <v>-0.3624160858660202</v>
+      </c>
+      <c r="K41" s="72">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
+        <v>147</v>
+      </c>
+      <c r="L41" s="74">
+        <f>K41/$I$31</f>
+        <v>0.97350993377483441</v>
+      </c>
+      <c r="M41" s="95">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
+        <v>45110</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="D42" s="56">
+        <f t="shared" si="0"/>
+        <v>-3.4146341463414553E-2</v>
+      </c>
+      <c r="H42" s="70"/>
+      <c r="M42" s="95"/>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
+        <v>45103</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D43" s="56">
+        <f t="shared" si="0"/>
+        <v>0.13259668508287281</v>
+      </c>
+      <c r="H43" s="126" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="128"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
+        <v>45096</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1.81</v>
+      </c>
+      <c r="D44" s="56">
+        <f t="shared" si="0"/>
+        <v>-3.208556149732622E-2</v>
+      </c>
+      <c r="H44" s="96">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="97">
+        <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
+        <v>-0.2176169541010321</v>
+      </c>
+      <c r="J44" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="97">
+        <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
+        <v>-9.5091969024047152E-2</v>
+      </c>
+      <c r="L44" s="98">
+        <v>0.85</v>
+      </c>
+      <c r="M44" s="99">
+        <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
+        <v>7.8438911852350302E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
+        <v>45089</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1.87</v>
+      </c>
+      <c r="D45" s="56">
+        <f t="shared" si="0"/>
+        <v>-6.9651741293532132E-2</v>
+      </c>
+      <c r="H45" s="100">
+        <v>0.02</v>
+      </c>
+      <c r="I45" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.20408163265306134</v>
+      </c>
+      <c r="J45" s="102">
+        <v>0.25</v>
+      </c>
+      <c r="K45" s="101">
+        <f t="shared" si="8"/>
+        <v>-7.9862134204953139E-2</v>
+      </c>
+      <c r="L45" s="102">
+        <v>0.86</v>
+      </c>
+      <c r="M45" s="103">
+        <f t="shared" si="9"/>
+        <v>8.4070796460177233E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="12">
+        <v>45082</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D46" s="56">
+        <f t="shared" si="0"/>
+        <v>0.16860465116279055</v>
+      </c>
+      <c r="H46" s="100">
+        <v>0.03</v>
+      </c>
+      <c r="I46" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.1860219068956932</v>
+      </c>
+      <c r="J46" s="102">
+        <v>0.3</v>
+      </c>
+      <c r="K46" s="101">
+        <f t="shared" si="8"/>
+        <v>-6.7796610169491456E-2</v>
+      </c>
+      <c r="L46" s="102">
+        <v>0.87</v>
+      </c>
+      <c r="M46" s="103">
+        <f t="shared" si="9"/>
+        <v>8.9774032937571802E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
+        <v>45075</v>
+      </c>
+      <c r="C47" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="D47" s="56">
+        <f t="shared" si="0"/>
+        <v>-2.2727272727272707E-2</v>
+      </c>
+      <c r="H47" s="100">
+        <v>0.04</v>
+      </c>
+      <c r="I47" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.173170731707317</v>
+      </c>
+      <c r="J47" s="102">
+        <v>0.35</v>
+      </c>
+      <c r="K47" s="101">
+        <f t="shared" si="8"/>
+        <v>-6.1047027506654861E-2</v>
+      </c>
+      <c r="L47" s="102">
+        <v>0.88</v>
+      </c>
+      <c r="M47" s="103">
+        <f t="shared" si="9"/>
+        <v>9.9099099099098975E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="12">
+        <v>45068</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1.76</v>
+      </c>
+      <c r="D48" s="56">
+        <f t="shared" si="0"/>
+        <v>-1.1235955056179803E-2</v>
+      </c>
+      <c r="H48" s="100">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.17044459862860128</v>
+      </c>
+      <c r="J48" s="102">
+        <v>0.4</v>
+      </c>
+      <c r="K48" s="101">
+        <f t="shared" si="8"/>
+        <v>-4.5454545454545525E-2</v>
+      </c>
+      <c r="L48" s="102">
+        <v>0.89</v>
+      </c>
+      <c r="M48" s="103">
+        <f t="shared" si="9"/>
+        <v>0.11814088035309556</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
+        <v>45061</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1.78</v>
+      </c>
+      <c r="D49" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.15238095238095239</v>
+      </c>
+      <c r="H49" s="100">
+        <v>0.06</v>
+      </c>
+      <c r="I49" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.16173908695652184</v>
+      </c>
+      <c r="J49" s="102">
+        <v>0.45</v>
+      </c>
+      <c r="K49" s="101">
+        <f t="shared" si="8"/>
+        <v>-3.8136241867585241E-2</v>
+      </c>
+      <c r="L49" s="102">
+        <v>0.9</v>
+      </c>
+      <c r="M49" s="103">
+        <f t="shared" si="9"/>
+        <v>0.12206572769953072</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
+        <v>45054</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="D50" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I50" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.15359633393106198</v>
+      </c>
+      <c r="J50" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="101">
+        <f t="shared" si="8"/>
+        <v>-3.3441208198489725E-2</v>
+      </c>
+      <c r="L50" s="102">
+        <v>0.91</v>
+      </c>
+      <c r="M50" s="103">
+        <f t="shared" si="9"/>
+        <v>0.12619086921662026</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="12">
+        <v>45047</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="D51" s="56">
+        <f t="shared" si="0"/>
+        <v>-9.8712446351931327E-2</v>
+      </c>
+      <c r="H51" s="100">
+        <v>0.08</v>
+      </c>
+      <c r="I51" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.15062111801242228</v>
+      </c>
+      <c r="J51" s="102">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K51" s="101">
+        <f t="shared" si="8"/>
+        <v>-1.9967402145620039E-2</v>
+      </c>
+      <c r="L51" s="102">
+        <v>0.92</v>
+      </c>
+      <c r="M51" s="103">
+        <f t="shared" si="9"/>
+        <v>0.13259668508287281</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="12">
+        <v>45040</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2.33</v>
+      </c>
+      <c r="D52" s="56">
+        <f t="shared" si="0"/>
+        <v>3.5555555555555562E-2</v>
+      </c>
+      <c r="H52" s="100">
+        <v>0.09</v>
+      </c>
+      <c r="I52" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.14630166787527188</v>
+      </c>
+      <c r="J52" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="K52" s="101">
+        <f t="shared" si="8"/>
+        <v>-7.8740157480314821E-3</v>
+      </c>
+      <c r="L52" s="102">
+        <v>0.93</v>
+      </c>
+      <c r="M52" s="103">
+        <f t="shared" si="9"/>
+        <v>0.14418654980252121</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
+        <v>45033</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="D53" s="56">
+        <f t="shared" si="0"/>
+        <v>-1.3157894736842035E-2</v>
+      </c>
+      <c r="H53" s="100">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.12401574803149606</v>
+      </c>
+      <c r="J53" s="102">
+        <v>0.65</v>
+      </c>
+      <c r="K53" s="101">
+        <f t="shared" si="8"/>
+        <v>9.2191149354636792E-4</v>
+      </c>
+      <c r="L53" s="102">
+        <v>0.94</v>
+      </c>
+      <c r="M53" s="103">
+        <f t="shared" si="9"/>
+        <v>0.14629258517034049</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="12">
+        <v>45026</v>
+      </c>
+      <c r="C54" s="17">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D54" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="100">
+        <v>0.11</v>
+      </c>
+      <c r="I54" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.12285308943825657</v>
+      </c>
+      <c r="J54" s="102">
+        <v>0.7</v>
+      </c>
+      <c r="K54" s="101">
+        <f t="shared" si="8"/>
+        <v>1.2552301255229992E-2</v>
+      </c>
+      <c r="L54" s="102">
+        <v>0.95</v>
+      </c>
+      <c r="M54" s="103">
+        <f t="shared" si="9"/>
+        <v>0.16971496153788912</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
+        <v>45019</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D55" s="56">
+        <f t="shared" si="0"/>
+        <v>-5.7851239669421517E-2</v>
+      </c>
+      <c r="H55" s="100">
+        <v>0.12</v>
+      </c>
+      <c r="I55" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.11875843454790824</v>
+      </c>
+      <c r="J55" s="102">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="101">
+        <f t="shared" si="8"/>
+        <v>3.4039644565960314E-2</v>
+      </c>
+      <c r="L55" s="102">
+        <v>0.96</v>
+      </c>
+      <c r="M55" s="103">
+        <f t="shared" si="9"/>
+        <v>0.20098039215686292</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="12">
+        <v>45012</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2.42</v>
+      </c>
+      <c r="D56" s="56">
+        <f t="shared" si="0"/>
+        <v>1.2552301255229992E-2</v>
+      </c>
+      <c r="H56" s="100">
+        <v>0.13</v>
+      </c>
+      <c r="I56" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.11757928978042825</v>
+      </c>
+      <c r="J56" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="K56" s="101">
+        <f t="shared" si="8"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="L56" s="102">
+        <v>0.97</v>
+      </c>
+      <c r="M56" s="103">
+        <f t="shared" si="9"/>
+        <v>0.21548763837747442</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
+        <v>45005</v>
+      </c>
+      <c r="C57" s="17">
+        <v>2.39</v>
+      </c>
+      <c r="D57" s="56">
+        <f t="shared" si="0"/>
+        <v>3.463203463203457E-2</v>
+      </c>
+      <c r="H57" s="100">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I57" s="101">
+        <f t="shared" si="7"/>
+        <v>-0.11585365853658534</v>
+      </c>
+      <c r="J57" s="102"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="102">
+        <v>0.98</v>
+      </c>
+      <c r="M57" s="103">
+        <f t="shared" si="9"/>
+        <v>0.34816753926701582</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="12">
+        <v>44998</v>
+      </c>
+      <c r="C58" s="17">
+        <v>2.31</v>
+      </c>
+      <c r="D58" s="56">
+        <f t="shared" si="0"/>
+        <v>0.14356435643564347</v>
+      </c>
+      <c r="H58" s="104">
+        <v>0.15</v>
+      </c>
+      <c r="I58" s="105">
+        <f t="shared" si="7"/>
+        <v>-0.10988247863247858</v>
+      </c>
+      <c r="J58" s="106"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="108">
+        <v>0.99</v>
+      </c>
+      <c r="M58" s="109">
+        <f t="shared" si="9"/>
+        <v>0.42219274977895671</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="12">
+        <v>44991</v>
+      </c>
+      <c r="C59" s="17">
+        <v>2.02</v>
+      </c>
+      <c r="D59" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.15481171548117156</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="12">
+        <v>44984</v>
+      </c>
+      <c r="C60" s="17">
+        <v>2.39</v>
+      </c>
+      <c r="D60" s="56">
+        <f t="shared" si="0"/>
+        <v>0.12206572769953072</v>
+      </c>
+      <c r="H60" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="I60" s="111">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="12">
+        <v>44977</v>
+      </c>
+      <c r="C61" s="17">
+        <v>2.13</v>
+      </c>
+      <c r="D61" s="56">
+        <f t="shared" si="0"/>
+        <v>-3.6199095022624417E-2</v>
+      </c>
+      <c r="H61" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="I61" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="12">
+        <v>44970</v>
+      </c>
+      <c r="C62" s="17">
+        <v>2.21</v>
+      </c>
+      <c r="D62" s="56">
+        <f t="shared" si="0"/>
+        <v>5.741626794258381E-2</v>
+      </c>
+      <c r="H62" s="114"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="12">
+        <v>44963</v>
+      </c>
+      <c r="C63" s="17">
+        <v>2.09</v>
+      </c>
+      <c r="D63" s="56">
+        <f t="shared" si="0"/>
+        <v>-0.20532319391634979</v>
+      </c>
+      <c r="H63" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="I63" s="115">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="12">
+        <v>44956</v>
+      </c>
+      <c r="C64" s="17">
+        <v>2.63</v>
+      </c>
+      <c r="D64" s="56">
+        <f t="shared" si="0"/>
+        <v>0.12875536480686689</v>
+      </c>
+      <c r="H64" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" s="117">
+        <f>I63*(1-I60)</f>
+        <v>0.78280000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="12">
+        <v>44949</v>
+      </c>
+      <c r="C65" s="17">
+        <v>2.33</v>
+      </c>
+      <c r="D65" s="56">
+        <f t="shared" si="0"/>
+        <v>-8.2677165354330673E-2</v>
+      </c>
+      <c r="H65" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65" s="118">
+        <f>I63*(1+I61)</f>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="12">
+        <v>44942</v>
+      </c>
+      <c r="C66" s="17">
+        <v>2.54</v>
+      </c>
+      <c r="D66" s="56">
+        <f t="shared" si="0"/>
+        <v>7.9365079365079083E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="12">
+        <v>44935</v>
+      </c>
+      <c r="C67" s="17">
+        <v>2.52</v>
+      </c>
+      <c r="D67" s="56">
+        <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
+        <v>-7.8740157480314821E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="12">
+        <v>44928</v>
+      </c>
+      <c r="C68" s="17">
+        <v>2.54</v>
+      </c>
+      <c r="D68" s="56">
+        <f t="shared" si="10"/>
+        <v>0.45977011494252884</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
+        <v>44921</v>
+      </c>
+      <c r="C69" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="D69" s="56">
+        <f t="shared" si="10"/>
+        <v>0.22535211267605648</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="12">
+        <v>44914</v>
+      </c>
+      <c r="C70" s="17">
+        <v>1.42</v>
+      </c>
+      <c r="D70" s="56">
+        <f t="shared" si="10"/>
+        <v>4.4117647058823373E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="12">
+        <v>44907</v>
+      </c>
+      <c r="C71" s="17">
+        <v>1.36</v>
+      </c>
+      <c r="D71" s="56">
+        <f t="shared" si="10"/>
+        <v>-4.2253521126760396E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="12">
+        <v>44900</v>
+      </c>
+      <c r="C72" s="17">
+        <v>1.42</v>
+      </c>
+      <c r="D72" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.12345679012345689</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
+        <v>44893</v>
+      </c>
+      <c r="C73" s="17">
+        <v>1.62</v>
+      </c>
+      <c r="D73" s="56">
+        <f t="shared" si="10"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
+        <v>44886</v>
+      </c>
+      <c r="C74" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="D74" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.1794871794871794</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
+        <v>44879</v>
+      </c>
+      <c r="C75" s="17">
+        <v>1.95</v>
+      </c>
+      <c r="D75" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.20408163265306134</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="12">
+        <v>44872</v>
+      </c>
+      <c r="C76" s="17">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D76" s="56">
+        <f t="shared" si="10"/>
+        <v>0.20098039215686292</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="12">
+        <v>44865</v>
+      </c>
+      <c r="C77" s="17">
+        <v>2.04</v>
+      </c>
+      <c r="D77" s="56">
+        <f t="shared" si="10"/>
+        <v>-5.9907834101382451E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="12">
+        <v>44858</v>
+      </c>
+      <c r="C78" s="17">
+        <v>2.17</v>
+      </c>
+      <c r="D78" s="56">
+        <f t="shared" si="10"/>
+        <v>5.8536585365853711E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="12">
+        <v>44851</v>
+      </c>
+      <c r="C79" s="17">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D79" s="56">
+        <f t="shared" si="10"/>
+        <v>-8.8888888888889017E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="12">
+        <v>44844</v>
+      </c>
+      <c r="C80" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="D80" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.11764705882352933</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="12">
+        <v>44837</v>
+      </c>
+      <c r="C81" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D81" s="56">
+        <f t="shared" si="10"/>
+        <v>-3.041825095057038E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="12">
+        <v>44830</v>
+      </c>
+      <c r="C82" s="17">
+        <v>2.63</v>
+      </c>
+      <c r="D82" s="56">
+        <f t="shared" si="10"/>
+        <v>-2.2304832713754719E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="12">
+        <v>44823</v>
+      </c>
+      <c r="C83" s="17">
+        <v>2.69</v>
+      </c>
+      <c r="D83" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.10033444816053516</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="12">
+        <v>44816</v>
+      </c>
+      <c r="C84" s="17">
+        <v>2.99</v>
+      </c>
+      <c r="D84" s="56">
+        <f t="shared" si="10"/>
+        <v>-8.5626911314984677E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="12">
+        <v>44809</v>
+      </c>
+      <c r="C85" s="17">
+        <v>3.27</v>
+      </c>
+      <c r="D85" s="56">
+        <f t="shared" si="10"/>
+        <v>7.9207920792079278E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="12">
+        <v>44802</v>
+      </c>
+      <c r="C86" s="17">
+        <v>3.03</v>
+      </c>
+      <c r="D86" s="56">
+        <f t="shared" si="10"/>
+        <v>-6.7692307692307718E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="12">
+        <v>44795</v>
+      </c>
+      <c r="C87" s="17">
+        <v>3.25</v>
+      </c>
+      <c r="D87" s="56">
+        <f t="shared" si="10"/>
+        <v>-4.1297935103244865E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="12">
+        <v>44788</v>
+      </c>
+      <c r="C88" s="17">
+        <v>3.39</v>
+      </c>
+      <c r="D88" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.173170731707317</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="12">
+        <v>44781</v>
+      </c>
+      <c r="C89" s="17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D89" s="56">
+        <f t="shared" si="10"/>
+        <v>3.2745591939546514E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="12">
+        <v>44774</v>
+      </c>
+      <c r="C90" s="17">
+        <v>3.97</v>
+      </c>
+      <c r="D90" s="56">
+        <f t="shared" si="10"/>
+        <v>6.7204301075268758E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="12">
+        <v>44767</v>
+      </c>
+      <c r="C91" s="17">
+        <v>3.72</v>
+      </c>
+      <c r="D91" s="56">
+        <f t="shared" si="10"/>
+        <v>-1.5873015873015817E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="12">
+        <v>44760</v>
+      </c>
+      <c r="C92" s="17">
+        <v>3.78</v>
+      </c>
+      <c r="D92" s="56">
+        <f t="shared" si="10"/>
+        <v>5.2924791086351064E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="12">
+        <v>44753</v>
+      </c>
+      <c r="C93" s="17">
+        <v>3.59</v>
+      </c>
+      <c r="D93" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.12224938875305624</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="12">
+        <v>44746</v>
+      </c>
+      <c r="C94" s="17">
+        <v>4.09</v>
+      </c>
+      <c r="D94" s="56">
+        <f t="shared" si="10"/>
+        <v>0.12362637362637363</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="12">
+        <v>44739</v>
+      </c>
+      <c r="C95" s="17">
+        <v>3.64</v>
+      </c>
+      <c r="D95" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.10784313725490191</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="12">
+        <v>44732</v>
+      </c>
+      <c r="C96" s="17">
+        <v>4.08</v>
+      </c>
+      <c r="D96" s="56">
+        <f t="shared" si="10"/>
+        <v>9.3833780160857971E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="12">
+        <v>44725</v>
+      </c>
+      <c r="C97" s="17">
+        <v>3.73</v>
+      </c>
+      <c r="D97" s="56">
+        <f t="shared" si="10"/>
+        <v>-4.1131105398457657E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="12">
+        <v>44718</v>
+      </c>
+      <c r="C98" s="17">
+        <v>3.89</v>
+      </c>
+      <c r="D98" s="56">
+        <f t="shared" si="10"/>
+        <v>-3.9506172839506082E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="12">
+        <v>44711</v>
+      </c>
+      <c r="C99" s="17">
+        <v>4.05</v>
+      </c>
+      <c r="D99" s="56">
+        <f t="shared" si="10"/>
+        <v>-3.341288782816243E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="12">
+        <v>44704</v>
+      </c>
+      <c r="C100" s="17">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D100" s="56">
+        <f t="shared" si="10"/>
+        <v>0.14480874316939896</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="12">
+        <v>44697</v>
+      </c>
+      <c r="C101" s="17">
+        <v>3.66</v>
+      </c>
+      <c r="D101" s="56">
+        <f t="shared" si="10"/>
+        <v>-1.3477088948786964E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="12">
+        <v>44690</v>
+      </c>
+      <c r="C102" s="17">
+        <v>3.71</v>
+      </c>
+      <c r="D102" s="56">
+        <f t="shared" si="10"/>
+        <v>0.11746987951807242</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="12">
+        <v>44683</v>
+      </c>
+      <c r="C103" s="17">
+        <v>3.32</v>
+      </c>
+      <c r="D103" s="56">
+        <f t="shared" si="10"/>
+        <v>-6.7415730337078705E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="12">
+        <v>44676</v>
+      </c>
+      <c r="C104" s="17">
+        <v>3.56</v>
+      </c>
+      <c r="D104" s="56">
+        <f t="shared" si="10"/>
+        <v>-7.0496083550913857E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="12">
+        <v>44669</v>
+      </c>
+      <c r="C105" s="17">
+        <v>3.83</v>
+      </c>
+      <c r="D105" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.11751152073732718</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="12">
+        <v>44662</v>
+      </c>
+      <c r="C106" s="17">
+        <v>4.34</v>
+      </c>
+      <c r="D106" s="56">
+        <f t="shared" si="10"/>
+        <v>-2.4719101123595544E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="12">
+        <v>44655</v>
+      </c>
+      <c r="C107" s="17">
+        <v>4.45</v>
+      </c>
+      <c r="D107" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.12401574803149606</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="12">
+        <v>44648</v>
+      </c>
+      <c r="C108" s="17">
+        <v>5.08</v>
+      </c>
+      <c r="D108" s="56">
+        <f t="shared" si="10"/>
+        <v>-7.8125E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="12">
+        <v>44641</v>
+      </c>
+      <c r="C109" s="17">
+        <v>5.12</v>
+      </c>
+      <c r="D109" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.10489510489510478</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="12">
+        <v>44634</v>
+      </c>
+      <c r="C110" s="17">
+        <v>5.72</v>
+      </c>
+      <c r="D110" s="56">
+        <f t="shared" si="10"/>
+        <v>0.14629258517034049</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="12">
+        <v>44627</v>
+      </c>
+      <c r="C111" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="D111" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.192556634304207</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="12">
+        <v>44620</v>
+      </c>
+      <c r="C112" s="17">
+        <v>6.18</v>
+      </c>
+      <c r="D112" s="56">
+        <f t="shared" si="10"/>
+        <v>-8.1723625557206692E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="12">
+        <v>44613</v>
+      </c>
+      <c r="C113" s="17">
+        <v>6.73</v>
+      </c>
+      <c r="D113" s="56">
+        <f t="shared" si="10"/>
+        <v>-3.4433285509325562E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="12">
+        <v>44606</v>
+      </c>
+      <c r="C114" s="17">
+        <v>6.97</v>
+      </c>
+      <c r="D114" s="56">
+        <f t="shared" si="10"/>
+        <v>-4.9113233287858216E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="12">
+        <v>44599</v>
+      </c>
+      <c r="C115" s="17">
+        <v>7.33</v>
+      </c>
+      <c r="D115" s="56">
+        <f t="shared" si="10"/>
+        <v>6.5406976744186052E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="12">
+        <v>44592</v>
+      </c>
+      <c r="C116" s="17">
+        <v>6.88</v>
+      </c>
+      <c r="D116" s="56">
+        <f t="shared" si="10"/>
+        <v>3.4586466165413388E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="12">
+        <v>44585</v>
+      </c>
+      <c r="C117" s="17">
+        <v>6.65</v>
+      </c>
+      <c r="D117" s="56">
+        <f t="shared" si="10"/>
+        <v>1.8376722817764257E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="12">
+        <v>44578</v>
+      </c>
+      <c r="C118" s="17">
+        <v>6.53</v>
+      </c>
+      <c r="D118" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.11875843454790824</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="12">
+        <v>44571</v>
+      </c>
+      <c r="C119" s="17">
+        <v>7.41</v>
+      </c>
+      <c r="D119" s="56">
+        <f t="shared" si="10"/>
+        <v>-7.1428571428571508E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="12">
+        <v>44564</v>
+      </c>
+      <c r="C120" s="17">
+        <v>7.98</v>
+      </c>
+      <c r="D120" s="56">
+        <f t="shared" si="10"/>
+        <v>2.5125628140703071E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="12">
+        <v>44557</v>
+      </c>
+      <c r="C121" s="17">
+        <v>7.96</v>
+      </c>
+      <c r="D121" s="56">
+        <f t="shared" si="10"/>
+        <v>-2.211302211302224E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="12">
+        <v>44550</v>
+      </c>
+      <c r="C122" s="17">
+        <v>8.14</v>
+      </c>
+      <c r="D122" s="56">
+        <f t="shared" si="10"/>
+        <v>1.8773466833541974E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="12">
+        <v>44543</v>
+      </c>
+      <c r="C123" s="17">
+        <v>7.99</v>
+      </c>
+      <c r="D123" s="56">
+        <f t="shared" si="10"/>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="12">
+        <v>44536</v>
+      </c>
+      <c r="C124" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="D124" s="56">
+        <f t="shared" si="10"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C125" s="17">
+        <v>8</v>
+      </c>
+      <c r="D125" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.17269906928645296</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="12">
+        <v>44522</v>
+      </c>
+      <c r="C126" s="17">
+        <v>9.67</v>
+      </c>
+      <c r="D126" s="56">
+        <f t="shared" si="10"/>
+        <v>-3.7810945273631935E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="12">
+        <v>44515</v>
+      </c>
+      <c r="C127" s="17">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D127" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.14974619289340096</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="12">
+        <v>44508</v>
+      </c>
+      <c r="C128" s="17">
+        <v>11.82</v>
+      </c>
+      <c r="D128" s="56">
+        <f t="shared" si="10"/>
+        <v>-0.10114068441064639</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="12">
+        <v>44501</v>
+      </c>
+      <c r="C129" s="17">
+        <v>13.15</v>
+      </c>
+      <c r="D129" s="56">
+        <f t="shared" si="10"/>
+        <v>2.0170674941815347E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="12">
+        <v>44494</v>
+      </c>
+      <c r="C130" s="17">
+        <v>12.89</v>
+      </c>
+      <c r="D130" s="56">
+        <f t="shared" si="10"/>
+        <v>-7.9942897930049939E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="12">
+        <v>44487</v>
+      </c>
+      <c r="C131" s="17">
+        <v>14.01</v>
+      </c>
+      <c r="D131" s="56">
+        <f t="shared" ref="D131:D151" si="11">C131/C132-1</f>
+        <v>-3.4458993797381154E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="12">
+        <v>44480</v>
+      </c>
+      <c r="C132" s="17">
+        <v>14.51</v>
+      </c>
+      <c r="D132" s="56">
+        <f t="shared" si="11"/>
+        <v>-6.164383561643838E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="12">
+        <v>44473</v>
+      </c>
+      <c r="C133" s="17">
+        <v>14.6</v>
+      </c>
+      <c r="D133" s="56">
+        <f t="shared" si="11"/>
+        <v>-1.0169491525423791E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="12">
+        <v>44466</v>
+      </c>
+      <c r="C134" s="17">
+        <v>14.75</v>
+      </c>
+      <c r="D134" s="56">
+        <f t="shared" si="11"/>
+        <v>-9.5091969024047152E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="12">
+        <v>44459</v>
+      </c>
+      <c r="C135" s="17">
+        <v>16.299999</v>
+      </c>
+      <c r="D135" s="56">
+        <f t="shared" si="11"/>
+        <v>1.8438229870927358E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="12">
+        <v>44452</v>
+      </c>
+      <c r="C136" s="17">
+        <v>16.27</v>
+      </c>
+      <c r="D136" s="56">
+        <f t="shared" si="11"/>
+        <v>-6.7621829935711752E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="12">
+        <v>44445</v>
+      </c>
+      <c r="C137" s="17">
+        <v>17.450001</v>
+      </c>
+      <c r="D137" s="56">
+        <f t="shared" si="11"/>
+        <v>3.622333729216165E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="12">
+        <v>44438</v>
+      </c>
+      <c r="C138" s="17">
+        <v>16.84</v>
+      </c>
+      <c r="D138" s="56">
+        <f t="shared" si="11"/>
+        <v>-7.9781370479856339E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="12">
+        <v>44431</v>
+      </c>
+      <c r="C139" s="17">
+        <v>18.299999</v>
+      </c>
+      <c r="D139" s="56">
+        <f t="shared" si="11"/>
+        <v>0.17082527191298769</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="12">
+        <v>44424</v>
+      </c>
+      <c r="C140" s="17">
+        <v>15.63</v>
+      </c>
+      <c r="D140" s="56">
+        <f t="shared" si="11"/>
+        <v>-7.3503315145031611E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="12">
+        <v>44417</v>
+      </c>
+      <c r="C141" s="17">
+        <v>16.870000999999998</v>
+      </c>
+      <c r="D141" s="56">
+        <f t="shared" si="11"/>
+        <v>-8.6626859048557714E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="12">
+        <v>44410</v>
+      </c>
+      <c r="C142" s="17">
+        <v>18.469999000000001</v>
+      </c>
+      <c r="D142" s="56">
+        <f t="shared" si="11"/>
+        <v>4.0563323943662022E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="12">
+        <v>44403</v>
+      </c>
+      <c r="C143" s="17">
+        <v>17.75</v>
+      </c>
+      <c r="D143" s="56">
+        <f t="shared" si="11"/>
+        <v>-3.8982081157665549E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="12">
+        <v>44396</v>
+      </c>
+      <c r="C144" s="17">
+        <v>18.469999000000001</v>
+      </c>
+      <c r="D144" s="56">
+        <f t="shared" si="11"/>
+        <v>-4.2012549688145606E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="12">
+        <v>44389</v>
+      </c>
+      <c r="C145" s="17">
+        <v>19.280000999999999</v>
+      </c>
+      <c r="D145" s="56">
+        <f t="shared" si="11"/>
+        <v>-0.16173908695652184</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="12">
+        <v>44382</v>
+      </c>
+      <c r="C146" s="17">
+        <v>23</v>
+      </c>
+      <c r="D146" s="56">
+        <f t="shared" si="11"/>
+        <v>-3.8977912516240387E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="12">
+        <v>44375</v>
+      </c>
+      <c r="C147" s="17">
+        <v>23.09</v>
+      </c>
+      <c r="D147" s="56">
+        <f t="shared" si="11"/>
+        <v>-5.3688524590163933E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="12">
+        <v>44368</v>
+      </c>
+      <c r="C148" s="17">
+        <v>24.4</v>
+      </c>
+      <c r="D148" s="56">
+        <f t="shared" si="11"/>
+        <v>-6.1538461538461542E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="12">
+        <v>44361</v>
+      </c>
+      <c r="C149" s="17">
+        <v>26</v>
+      </c>
+      <c r="D149" s="56">
+        <f t="shared" si="11"/>
+        <v>-9.5022624434389136E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="12">
+        <v>44354</v>
+      </c>
+      <c r="C150" s="17">
+        <v>28.73</v>
+      </c>
+      <c r="D150" s="56">
+        <f t="shared" si="11"/>
+        <v>0.20562316407889236</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="12">
+        <v>44347</v>
+      </c>
+      <c r="C151" s="17">
+        <v>23.83</v>
+      </c>
+      <c r="D151" s="56">
+        <f t="shared" si="11"/>
+        <v>5.0611980202950324E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="12">
+        <v>44340</v>
+      </c>
+      <c r="C152" s="17">
+        <v>23.709999</v>
+      </c>
+      <c r="D152" s="56">
+        <f>C152/C153-1</f>
+        <v>5.5654499361286636E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="12">
+        <v>44333</v>
+      </c>
+      <c r="C153" s="17">
+        <v>22.459999</v>
+      </c>
+      <c r="D153" s="56"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="12"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="56"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="12"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="56"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="12"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="56"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="12"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="56"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="12"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H43:M43"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D252785F-C9B5-4588-8297-C3A21B328E45}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OTLY.xlsx
+++ b/OTLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A05BA-2EFC-4336-B6E6-AA7A1B28C99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7903A98-8A9F-4B6F-BB6F-1DC26DF091BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$3:$Q$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$4:$Q$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$20:$Q$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$20:$Q$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$21:$Q$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$3:$Q$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$4:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1272,7 +1272,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1448,6 +1448,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -9037,40 +9038,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Less than -36,24%</c:v>
+                  <c:v>Less than -36,13%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-36,24% to -29,27%</c:v>
+                  <c:v>-36,13% to -29,19%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29,27% to -22,30%</c:v>
+                  <c:v>-29,19% to -22,25%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22,30% to -15,33%</c:v>
+                  <c:v>-22,25% to -15,32%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15,33% to -8,36%</c:v>
+                  <c:v>-15,32% to -8,38%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8,36% to -1,39%</c:v>
+                  <c:v>-8,38% to -1,44%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1,39% to 5,59%</c:v>
+                  <c:v>-1,44% to 5,49%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5,59% to 12,56%</c:v>
+                  <c:v>5,49% to 12,43%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12,56% to 19,53%</c:v>
+                  <c:v>12,43% to 19,37%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19,53% to 26,50%</c:v>
+                  <c:v>19,37% to 26,30%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26,50% to 33,47%</c:v>
+                  <c:v>26,30% to 33,24%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Greater than 33,47%</c:v>
+                  <c:v>Greater than 33,24%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9094,16 +9095,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7</c:v>
@@ -9302,18 +9303,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9357,7 +9358,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9377,7 +9378,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9408,18 +9409,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9463,7 +9464,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9483,7 +9484,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -26244,7 +26245,7 @@
   <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26283,14 +26284,14 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
-        <v>45390</v>
-      </c>
-      <c r="C2" s="17">
-        <v>1.05</v>
+        <v>45404</v>
+      </c>
+      <c r="C2" s="129">
+        <v>0.93</v>
       </c>
       <c r="D2" s="56">
         <f>C2/C3-1</f>
-        <v>-3.669724770642202E-2</v>
+        <v>-2.1052631578947323E-2</v>
       </c>
       <c r="H2" s="57"/>
       <c r="I2" s="58"/>
@@ -26301,14 +26302,14 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
-        <v>45383</v>
-      </c>
-      <c r="C3" s="17">
-        <v>1.0900000000000001</v>
+        <v>45397</v>
+      </c>
+      <c r="C3" s="129">
+        <v>0.95</v>
       </c>
       <c r="D3" s="56">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
-        <v>-3.5398230088495408E-2</v>
+        <v>-9.5238095238095344E-2</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>136</v>
@@ -26331,22 +26332,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
-        <v>45376</v>
-      </c>
-      <c r="C4" s="17">
-        <v>1.1299999999999999</v>
+        <v>45390</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.05</v>
       </c>
       <c r="D4" s="56">
         <f>C4/C5-1</f>
-        <v>0.1188118811881187</v>
+        <v>-3.669724770642202E-2</v>
       </c>
       <c r="H4" s="65">
         <f>$I$19-3*$I$23</f>
-        <v>-0.3624160858660202</v>
+        <v>-0.36126016972227615</v>
       </c>
       <c r="I4" s="66">
         <f>H4</f>
-        <v>-0.3624160858660202</v>
+        <v>-0.36126016972227615</v>
       </c>
       <c r="J4" s="67">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
@@ -26354,7 +26355,7 @@
       </c>
       <c r="K4" s="67" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
-        <v>Less than -36,24%</v>
+        <v>Less than -36,13%</v>
       </c>
       <c r="L4" s="68">
         <f>J4/$I$31</f>
@@ -26367,22 +26368,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
-        <v>45369</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1.01</v>
+        <v>45383</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.0900000000000001</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="0"/>
-        <v>1.8145161290322509E-2</v>
+        <v>-3.5398230088495408E-2</v>
       </c>
       <c r="H5" s="70">
         <f>$I$19-2.4*$I$23</f>
-        <v>-0.29270370032461013</v>
+        <v>-0.29189476141026732</v>
       </c>
       <c r="I5" s="71">
         <f>H5</f>
-        <v>-0.29270370032461013</v>
+        <v>-0.29189476141026732</v>
       </c>
       <c r="J5" s="72">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
@@ -26390,7 +26391,7 @@
       </c>
       <c r="K5" s="73" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
-        <v>-36,24% to -29,27%</v>
+        <v>-36,13% to -29,19%</v>
       </c>
       <c r="L5" s="74">
         <f>J5/$I$31</f>
@@ -26403,22 +26404,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
-        <v>45362</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0.99199999999999999</v>
+        <v>45376</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.1299999999999999</v>
       </c>
       <c r="D6" s="56">
         <f t="shared" si="0"/>
-        <v>-1.7821782178217838E-2</v>
+        <v>0.1188118811881187</v>
       </c>
       <c r="H6" s="70">
         <f>$I$19-1.8*$I$23</f>
-        <v>-0.22299131478320014</v>
+        <v>-0.22252935309825861</v>
       </c>
       <c r="I6" s="71">
         <f t="shared" ref="I6:I14" si="2">H6</f>
-        <v>-0.22299131478320014</v>
+        <v>-0.22252935309825861</v>
       </c>
       <c r="J6" s="72">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
@@ -26426,35 +26427,35 @@
       </c>
       <c r="K6" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>-29,27% to -22,30%</v>
+        <v>-29,19% to -22,25%</v>
       </c>
       <c r="L6" s="74">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
-        <v>1.3245033112582781E-2</v>
+        <v>1.3071895424836602E-2</v>
       </c>
       <c r="M6" s="75">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
-        <v>1.3245033112582781E-2</v>
+        <v>1.3071895424836602E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
-        <v>45355</v>
-      </c>
-      <c r="C7" s="17">
+        <v>45369</v>
+      </c>
+      <c r="C7" s="18">
         <v>1.01</v>
       </c>
       <c r="D7" s="56">
         <f t="shared" si="0"/>
-        <v>-6.4814814814814881E-2</v>
+        <v>1.8145161290322509E-2</v>
       </c>
       <c r="H7" s="70">
         <f>$I$19-1.2*$I$23</f>
-        <v>-0.1532789292417901</v>
+        <v>-0.15316394478624978</v>
       </c>
       <c r="I7" s="71">
         <f t="shared" si="2"/>
-        <v>-0.1532789292417901</v>
+        <v>-0.15316394478624978</v>
       </c>
       <c r="J7" s="72">
         <f t="shared" si="3"/>
@@ -26462,179 +26463,179 @@
       </c>
       <c r="K7" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>-22,30% to -15,33%</v>
+        <v>-22,25% to -15,32%</v>
       </c>
       <c r="L7" s="74">
         <f t="shared" si="4"/>
-        <v>5.9602649006622516E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="M7" s="75">
         <f>M6+L7</f>
-        <v>7.2847682119205295E-2</v>
+        <v>7.1895424836601302E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
-        <v>45348</v>
-      </c>
-      <c r="C8" s="17">
-        <v>1.08</v>
+        <v>45362</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.99199999999999999</v>
       </c>
       <c r="D8" s="56">
         <f t="shared" si="0"/>
-        <v>-6.0869565217391175E-2</v>
+        <v>-1.7821782178217838E-2</v>
       </c>
       <c r="H8" s="70">
         <f>$I$19-0.6*$I$23</f>
-        <v>-8.3566543700380108E-2</v>
+        <v>-8.3798536474240987E-2</v>
       </c>
       <c r="I8" s="71">
         <f t="shared" si="2"/>
-        <v>-8.3566543700380108E-2</v>
+        <v>-8.3798536474240987E-2</v>
       </c>
       <c r="J8" s="72">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>-15,33% to -8,36%</v>
+        <v>-15,32% to -8,38%</v>
       </c>
       <c r="L8" s="74">
         <f t="shared" si="4"/>
-        <v>0.15894039735099338</v>
+        <v>0.16339869281045752</v>
       </c>
       <c r="M8" s="75">
         <f t="shared" si="5"/>
-        <v>0.23178807947019869</v>
+        <v>0.23529411764705882</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
-        <v>45341</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1.1499999999999999</v>
+        <v>45355</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.01</v>
       </c>
       <c r="D9" s="56">
         <f t="shared" si="0"/>
-        <v>-6.1224489795918546E-2</v>
+        <v>-6.4814814814814881E-2</v>
       </c>
       <c r="H9" s="70">
         <f>$I$19</f>
-        <v>-1.3854158158970099E-2</v>
+        <v>-1.4433128162232205E-2</v>
       </c>
       <c r="I9" s="71">
         <f t="shared" si="2"/>
-        <v>-1.3854158158970099E-2</v>
+        <v>-1.4433128162232205E-2</v>
       </c>
       <c r="J9" s="72">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>-8,36% to -1,39%</v>
+        <v>-8,38% to -1,44%</v>
       </c>
       <c r="L9" s="74">
         <f t="shared" si="4"/>
-        <v>0.33774834437086093</v>
+        <v>0.33986928104575165</v>
       </c>
       <c r="M9" s="75">
         <f t="shared" si="5"/>
-        <v>0.56953642384105962</v>
+        <v>0.57516339869281041</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
-        <v>45334</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1.2250000000000001</v>
+        <v>45348</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1.08</v>
       </c>
       <c r="D10" s="56">
         <f t="shared" si="0"/>
-        <v>8.4070796460177233E-2</v>
+        <v>-6.0869565217391175E-2</v>
       </c>
       <c r="H10" s="70">
         <f>$I$19+0.6*$I$23</f>
-        <v>5.5858227382439903E-2</v>
+        <v>5.493228014977658E-2</v>
       </c>
       <c r="I10" s="71">
         <f t="shared" si="2"/>
-        <v>5.5858227382439903E-2</v>
+        <v>5.493228014977658E-2</v>
       </c>
       <c r="J10" s="72">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K10" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>-1,39% to 5,59%</v>
+        <v>-1,44% to 5,49%</v>
       </c>
       <c r="L10" s="74">
         <f t="shared" si="4"/>
-        <v>0.23841059602649006</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M10" s="75">
         <f t="shared" si="5"/>
-        <v>0.80794701986754969</v>
+        <v>0.79738562091503262</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
-        <v>45327</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1.1299999999999999</v>
+        <v>45341</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1.1499999999999999</v>
       </c>
       <c r="D11" s="56">
         <f t="shared" si="0"/>
-        <v>-1.7391304347826098E-2</v>
+        <v>-6.1224489795918546E-2</v>
       </c>
       <c r="H11" s="70">
         <f>$I$19+1.2*$I$23</f>
-        <v>0.12557061292384991</v>
+        <v>0.12429768846178536</v>
       </c>
       <c r="I11" s="71">
         <f t="shared" si="2"/>
-        <v>0.12557061292384991</v>
+        <v>0.12429768846178536</v>
       </c>
       <c r="J11" s="72">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K11" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>5,59% to 12,56%</v>
+        <v>5,49% to 12,43%</v>
       </c>
       <c r="L11" s="74">
         <f t="shared" si="4"/>
-        <v>9.9337748344370855E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M11" s="75">
         <f t="shared" si="5"/>
-        <v>0.9072847682119205</v>
+        <v>0.90849673202614367</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
-        <v>45320</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1.1499999999999999</v>
+        <v>45334</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1.2250000000000001</v>
       </c>
       <c r="D12" s="56">
         <f t="shared" si="0"/>
-        <v>8.7719298245614308E-3</v>
+        <v>8.4070796460177233E-2</v>
       </c>
       <c r="H12" s="70">
         <f>$I$19+1.8*$I$23</f>
-        <v>0.19528299846525995</v>
+        <v>0.19366309677379417</v>
       </c>
       <c r="I12" s="71">
         <f t="shared" si="2"/>
-        <v>0.19528299846525995</v>
+        <v>0.19366309677379417</v>
       </c>
       <c r="J12" s="72">
         <f t="shared" si="3"/>
@@ -26642,35 +26643,35 @@
       </c>
       <c r="K12" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>12,56% to 19,53%</v>
+        <v>12,43% to 19,37%</v>
       </c>
       <c r="L12" s="74">
         <f t="shared" si="4"/>
-        <v>4.6357615894039736E-2</v>
+        <v>4.5751633986928102E-2</v>
       </c>
       <c r="M12" s="75">
         <f t="shared" si="5"/>
-        <v>0.95364238410596025</v>
+        <v>0.95424836601307172</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
-        <v>45313</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1.1399999999999999</v>
+        <v>45327</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1.1299999999999999</v>
       </c>
       <c r="D13" s="56">
         <f t="shared" si="0"/>
-        <v>8.5714285714285632E-2</v>
+        <v>-1.7391304347826098E-2</v>
       </c>
       <c r="H13" s="70">
         <f>$I$19+2.4*$I$23</f>
-        <v>0.26499538400666989</v>
+        <v>0.26302850508580294</v>
       </c>
       <c r="I13" s="71">
         <f t="shared" si="2"/>
-        <v>0.26499538400666989</v>
+        <v>0.26302850508580294</v>
       </c>
       <c r="J13" s="72">
         <f t="shared" si="3"/>
@@ -26678,35 +26679,35 @@
       </c>
       <c r="K13" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>19,53% to 26,50%</v>
+        <v>19,37% to 26,30%</v>
       </c>
       <c r="L13" s="74">
         <f t="shared" si="4"/>
-        <v>1.9867549668874173E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="M13" s="75">
         <f t="shared" si="5"/>
-        <v>0.97350993377483441</v>
+        <v>0.97385620915032667</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
-        <v>45306</v>
-      </c>
-      <c r="C14" s="17">
-        <v>1.05</v>
+        <v>45320</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.1499999999999999</v>
       </c>
       <c r="D14" s="56">
         <f t="shared" si="0"/>
-        <v>-4.5454545454545525E-2</v>
+        <v>8.7719298245614308E-3</v>
       </c>
       <c r="H14" s="70">
         <f>$I$19+3*$I$23</f>
-        <v>0.33470776954807996</v>
+        <v>0.33239391339781177</v>
       </c>
       <c r="I14" s="71">
         <f t="shared" si="2"/>
-        <v>0.33470776954807996</v>
+        <v>0.33239391339781177</v>
       </c>
       <c r="J14" s="72">
         <f t="shared" si="3"/>
@@ -26714,7 +26715,7 @@
       </c>
       <c r="K14" s="73" t="str">
         <f t="shared" si="1"/>
-        <v>26,50% to 33,47%</v>
+        <v>26,30% to 33,24%</v>
       </c>
       <c r="L14" s="74">
         <f t="shared" si="4"/>
@@ -26722,19 +26723,19 @@
       </c>
       <c r="M14" s="75">
         <f t="shared" si="5"/>
-        <v>0.97350993377483441</v>
+        <v>0.97385620915032667</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
-        <v>45299</v>
-      </c>
-      <c r="C15" s="17">
-        <v>1.1000000000000001</v>
+        <v>45313</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1.1399999999999999</v>
       </c>
       <c r="D15" s="56">
         <f t="shared" si="0"/>
-        <v>-6.7796610169491456E-2</v>
+        <v>8.5714285714285632E-2</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="77" t="s">
@@ -26746,41 +26747,41 @@
       </c>
       <c r="K15" s="77" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
-        <v>Greater than 33,47%</v>
+        <v>Greater than 33,24%</v>
       </c>
       <c r="L15" s="78">
         <f t="shared" si="4"/>
-        <v>2.6490066225165563E-2</v>
+        <v>2.6143790849673203E-2</v>
       </c>
       <c r="M15" s="78">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
-        <v>45292</v>
-      </c>
-      <c r="C16" s="17">
-        <v>1.18</v>
+        <v>45306</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1.05</v>
       </c>
       <c r="D16" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.5454545454545525E-2</v>
       </c>
       <c r="H16" s="79"/>
       <c r="M16" s="80"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
-        <v>45285</v>
-      </c>
-      <c r="C17" s="17">
-        <v>1.18</v>
+        <v>45299</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D17" s="56">
         <f t="shared" si="0"/>
-        <v>-4.8387096774193616E-2</v>
+        <v>-6.7796610169491456E-2</v>
       </c>
       <c r="H17" s="122" t="s">
         <v>143</v>
@@ -26790,14 +26791,14 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
-        <v>45278</v>
-      </c>
-      <c r="C18" s="17">
-        <v>1.24</v>
+        <v>45292</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1.18</v>
       </c>
       <c r="D18" s="56">
         <f t="shared" si="0"/>
-        <v>1.6393442622950838E-2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="124"/>
       <c r="I18" s="125"/>
@@ -26805,54 +26806,54 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
-        <v>45271</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1.22</v>
+        <v>45285</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1.18</v>
       </c>
       <c r="D19" s="56">
         <f t="shared" si="0"/>
-        <v>9.9099099099098975E-2</v>
+        <v>-4.8387096774193616E-2</v>
       </c>
       <c r="H19" s="81" t="s">
         <v>144</v>
       </c>
       <c r="I19" s="82">
         <f>AVERAGE(D:D)</f>
-        <v>-1.3854158158970099E-2</v>
+        <v>-1.4433128162232205E-2</v>
       </c>
       <c r="M19" s="80"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
-        <v>45264</v>
-      </c>
-      <c r="C20" s="17">
-        <v>1.1100000000000001</v>
+        <v>45278</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1.24</v>
       </c>
       <c r="D20" s="56">
         <f t="shared" si="0"/>
-        <v>7.7669902912621325E-2</v>
+        <v>1.6393442622950838E-2</v>
       </c>
       <c r="H20" s="81" t="s">
         <v>145</v>
       </c>
       <c r="I20" s="82">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
-        <v>9.4551891311674859E-3</v>
+        <v>9.3464348115852771E-3</v>
       </c>
       <c r="M20" s="80"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
-        <v>45257</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1.03</v>
+        <v>45271</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1.22</v>
       </c>
       <c r="D21" s="56">
         <f t="shared" si="0"/>
-        <v>0.34816753926701582</v>
+        <v>9.9099099099098975E-2</v>
       </c>
       <c r="H21" s="81" t="s">
         <v>146</v>
@@ -26865,14 +26866,14 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
-        <v>45250</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0.76400000000000001</v>
+        <v>45264</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1.1100000000000001</v>
       </c>
       <c r="D22" s="56">
         <f t="shared" si="0"/>
-        <v>-7.2815533980582492E-2</v>
+        <v>7.7669902912621325E-2</v>
       </c>
       <c r="H22" s="81" t="s">
         <v>147</v>
@@ -26885,94 +26886,94 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
-        <v>45243</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.82399999999999995</v>
+        <v>45257</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1.03</v>
       </c>
       <c r="D23" s="56">
         <f t="shared" si="0"/>
-        <v>0.52592592592592569</v>
+        <v>0.34816753926701582</v>
       </c>
       <c r="H23" s="81" t="s">
         <v>148</v>
       </c>
       <c r="I23" s="82">
         <f>_xlfn.STDEV.S(D:D)</f>
-        <v>0.11618730923568335</v>
+        <v>0.11560901385334799</v>
       </c>
       <c r="M23" s="80"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
-        <v>45236</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0.54</v>
+        <v>45250</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.76400000000000001</v>
       </c>
       <c r="D24" s="56">
         <f t="shared" si="0"/>
-        <v>-0.14285714285714279</v>
+        <v>-7.2815533980582492E-2</v>
       </c>
       <c r="H24" s="81" t="s">
         <v>149</v>
       </c>
       <c r="I24" s="82">
         <f>_xlfn.VAR.S(D:D)</f>
-        <v>1.3499490827428311E-2</v>
+        <v>1.3365444084143606E-2</v>
       </c>
       <c r="M24" s="80"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
-        <v>45229</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0.63</v>
+        <v>45243</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.82399999999999995</v>
       </c>
       <c r="D25" s="56">
         <f t="shared" si="0"/>
-        <v>0.38461538461538458</v>
+        <v>0.52592592592592569</v>
       </c>
       <c r="H25" s="81" t="s">
         <v>150</v>
       </c>
       <c r="I25" s="83">
         <f>KURT(D:D)</f>
-        <v>4.8499814316805407</v>
+        <v>4.9340455915570836</v>
       </c>
       <c r="M25" s="80"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
-        <v>45222</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0.45500000000000002</v>
+        <v>45236</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.54</v>
       </c>
       <c r="D26" s="56">
         <f t="shared" si="0"/>
-        <v>-0.16819012797074961</v>
+        <v>-0.14285714285714279</v>
       </c>
       <c r="H26" s="81" t="s">
         <v>151</v>
       </c>
       <c r="I26" s="83">
         <f>SKEW(D:D)</f>
-        <v>1.5711322777013221</v>
+        <v>1.5864629641284789</v>
       </c>
       <c r="M26" s="80"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
-        <v>45215</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0.54700000000000004</v>
+        <v>45229</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0.63</v>
       </c>
       <c r="D27" s="56">
         <f t="shared" si="0"/>
-        <v>-0.15062111801242228</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="H27" s="81" t="s">
         <v>139</v>
@@ -26985,14 +26986,14 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
-        <v>45208</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0.64400000000000002</v>
+        <v>45222</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0.45500000000000002</v>
       </c>
       <c r="D28" s="56">
         <f t="shared" si="0"/>
-        <v>-6.6666666666666541E-2</v>
+        <v>-0.16819012797074961</v>
       </c>
       <c r="H28" s="81" t="s">
         <v>152</v>
@@ -27005,14 +27006,14 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
-        <v>45201</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0.69</v>
+        <v>45215</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0.54700000000000004</v>
       </c>
       <c r="D29" s="56">
         <f t="shared" si="0"/>
-        <v>-0.22991071428571441</v>
+        <v>-0.15062111801242228</v>
       </c>
       <c r="H29" s="81" t="s">
         <v>153</v>
@@ -27025,68 +27026,68 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
-        <v>45194</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0.89600000000000002</v>
+        <v>45208</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0.64400000000000002</v>
       </c>
       <c r="D30" s="56">
         <f t="shared" si="0"/>
-        <v>-3.3441208198489725E-2</v>
+        <v>-6.6666666666666541E-2</v>
       </c>
       <c r="H30" s="81" t="s">
         <v>154</v>
       </c>
       <c r="I30" s="83">
         <f>SUM(D:D)</f>
-        <v>-2.091977882004485</v>
+        <v>-2.2082686088215273</v>
       </c>
       <c r="M30" s="80"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
-        <v>45187</v>
-      </c>
-      <c r="C31" s="17">
-        <v>0.92700000000000005</v>
+        <v>45201</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.69</v>
       </c>
       <c r="D31" s="56">
         <f t="shared" si="0"/>
-        <v>-0.1086538461538461</v>
+        <v>-0.22991071428571441</v>
       </c>
       <c r="H31" s="84" t="s">
         <v>155</v>
       </c>
       <c r="I31" s="85">
         <f>COUNT(D:D)</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M31" s="80"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
-        <v>45180</v>
-      </c>
-      <c r="C32" s="17">
-        <v>1.04</v>
+        <v>45194</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0.89600000000000002</v>
       </c>
       <c r="D32" s="56">
         <f t="shared" si="0"/>
-        <v>-7.1428571428571508E-2</v>
+        <v>-3.3441208198489725E-2</v>
       </c>
       <c r="H32" s="86"/>
       <c r="M32" s="80"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
-        <v>45173</v>
-      </c>
-      <c r="C33" s="17">
-        <v>1.1200000000000001</v>
+        <v>45187</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0.92700000000000005</v>
       </c>
       <c r="D33" s="56">
         <f t="shared" si="0"/>
-        <v>-0.11111111111111105</v>
+        <v>-0.1086538461538461</v>
       </c>
       <c r="H33" s="87"/>
       <c r="I33" s="88" t="s">
@@ -27105,14 +27106,14 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
-        <v>45166</v>
-      </c>
-      <c r="C34" s="17">
-        <v>1.26</v>
+        <v>45180</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1.04</v>
       </c>
       <c r="D34" s="56">
         <f t="shared" si="0"/>
-        <v>8.0000000000000071E-3</v>
+        <v>-7.1428571428571508E-2</v>
       </c>
       <c r="H34" s="90" t="s">
         <v>159</v>
@@ -27127,56 +27128,56 @@
       </c>
       <c r="K34" s="74">
         <f>J34/$I$31</f>
-        <v>0.35099337748344372</v>
+        <v>0.34640522875816993</v>
       </c>
       <c r="L34" s="75">
         <f>K34*I34</f>
-        <v>3.5136460176183618E-2</v>
+        <v>3.4677160043161612E-2</v>
       </c>
       <c r="M34" s="80"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
-        <v>45159</v>
-      </c>
-      <c r="C35" s="17">
-        <v>1.25</v>
+        <v>45173</v>
+      </c>
+      <c r="C35" s="18">
+        <v>1.1200000000000001</v>
       </c>
       <c r="D35" s="56">
         <f t="shared" si="0"/>
-        <v>-3.8461538461538547E-2</v>
+        <v>-0.11111111111111105</v>
       </c>
       <c r="H35" s="90" t="s">
         <v>160</v>
       </c>
       <c r="I35" s="74">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
-        <v>-7.8697695410725674E-2</v>
+        <v>-7.8269521827346422E-2</v>
       </c>
       <c r="J35" s="72">
         <f>COUNTIF(D:D,"&lt;0")</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K35" s="74">
         <f>J35/$I$31</f>
-        <v>0.62251655629139069</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="L35" s="75">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
-        <v>-4.8990618335153731E-2</v>
+        <v>-4.9110288205393836E-2</v>
       </c>
       <c r="M35" s="80"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
-        <v>45152</v>
-      </c>
-      <c r="C36" s="17">
-        <v>1.3</v>
+        <v>45166</v>
+      </c>
+      <c r="C36" s="18">
+        <v>1.26</v>
       </c>
       <c r="D36" s="56">
         <f t="shared" si="0"/>
-        <v>-0.10344827586206895</v>
+        <v>8.0000000000000071E-3</v>
       </c>
       <c r="H36" s="91" t="s">
         <v>161</v>
@@ -27190,7 +27191,7 @@
       </c>
       <c r="K36" s="92">
         <f>J36/$I$31</f>
-        <v>2.6490066225165563E-2</v>
+        <v>2.6143790849673203E-2</v>
       </c>
       <c r="L36" s="78">
         <f t="shared" si="6"/>
@@ -27200,14 +27201,14 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
-        <v>45145</v>
-      </c>
-      <c r="C37" s="17">
-        <v>1.45</v>
+        <v>45159</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1.25</v>
       </c>
       <c r="D37" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.8461538461538547E-2</v>
       </c>
       <c r="H37" s="86"/>
       <c r="I37" s="93"/>
@@ -27218,14 +27219,14 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
-        <v>45138</v>
-      </c>
-      <c r="C38" s="17">
-        <v>1.45</v>
+        <v>45152</v>
+      </c>
+      <c r="C38" s="18">
+        <v>1.3</v>
       </c>
       <c r="D38" s="56">
         <f t="shared" si="0"/>
-        <v>-0.11585365853658536</v>
+        <v>-0.10344827586206895</v>
       </c>
       <c r="H38" s="65" t="s">
         <v>162</v>
@@ -27248,33 +27249,33 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
-        <v>45131</v>
-      </c>
-      <c r="C39" s="17">
-        <v>1.64</v>
+        <v>45145</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1.45</v>
       </c>
       <c r="D39" s="56">
         <f t="shared" si="0"/>
-        <v>-0.24074074074074081</v>
+        <v>0</v>
       </c>
       <c r="H39" s="94">
         <v>1</v>
       </c>
       <c r="I39" s="74">
         <f>$I$19+($H39*$I$23)</f>
-        <v>0.10233315107671326</v>
+        <v>0.10117588569111578</v>
       </c>
       <c r="J39" s="74">
         <f>$I$19-($H39*$I$23)</f>
-        <v>-0.13004146739465344</v>
+        <v>-0.1300421420155802</v>
       </c>
       <c r="K39" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L39" s="74">
         <f>K39/$I$31</f>
-        <v>0.7814569536423841</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="M39" s="75">
         <v>0.68269999999999997</v>
@@ -27282,33 +27283,33 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
-        <v>45124</v>
-      </c>
-      <c r="C40" s="17">
-        <v>2.16</v>
+        <v>45138</v>
+      </c>
+      <c r="C40" s="18">
+        <v>1.45</v>
       </c>
       <c r="D40" s="56">
         <f t="shared" si="0"/>
-        <v>3.3492822966507241E-2</v>
+        <v>-0.11585365853658536</v>
       </c>
       <c r="H40" s="94">
         <v>2</v>
       </c>
       <c r="I40" s="74">
         <f>$I$19+($H40*$I$23)</f>
-        <v>0.21852046031239661</v>
+        <v>0.21678489954446375</v>
       </c>
       <c r="J40" s="74">
         <f>$I$19-($H40*$I$23)</f>
-        <v>-0.24622877663033679</v>
+        <v>-0.24565115586892819</v>
       </c>
       <c r="K40" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L40" s="74">
         <f>K40/$I$31</f>
-        <v>0.9668874172185431</v>
+        <v>0.9673202614379085</v>
       </c>
       <c r="M40" s="75">
         <v>0.95450000000000002</v>
@@ -27316,33 +27317,33 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
-        <v>45117</v>
-      </c>
-      <c r="C41" s="17">
-        <v>2.09</v>
+        <v>45131</v>
+      </c>
+      <c r="C41" s="18">
+        <v>1.64</v>
       </c>
       <c r="D41" s="56">
         <f t="shared" si="0"/>
-        <v>5.555555555555558E-2</v>
+        <v>-0.24074074074074081</v>
       </c>
       <c r="H41" s="94">
         <v>3</v>
       </c>
       <c r="I41" s="74">
         <f>$I$19+($H41*$I$23)</f>
-        <v>0.33470776954807996</v>
+        <v>0.33239391339781177</v>
       </c>
       <c r="J41" s="74">
         <f>$I$19-($H41*$I$23)</f>
-        <v>-0.3624160858660202</v>
+        <v>-0.36126016972227615</v>
       </c>
       <c r="K41" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L41" s="74">
         <f>K41/$I$31</f>
-        <v>0.97350993377483441</v>
+        <v>0.97385620915032678</v>
       </c>
       <c r="M41" s="95">
         <v>0.99729999999999996</v>
@@ -27350,28 +27351,28 @@
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
-        <v>45110</v>
-      </c>
-      <c r="C42" s="17">
-        <v>1.98</v>
+        <v>45124</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2.16</v>
       </c>
       <c r="D42" s="56">
         <f t="shared" si="0"/>
-        <v>-3.4146341463414553E-2</v>
+        <v>3.3492822966507241E-2</v>
       </c>
       <c r="H42" s="70"/>
       <c r="M42" s="95"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
-        <v>45103</v>
-      </c>
-      <c r="C43" s="17">
-        <v>2.0499999999999998</v>
+        <v>45117</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2.09</v>
       </c>
       <c r="D43" s="56">
         <f t="shared" si="0"/>
-        <v>0.13259668508287281</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H43" s="126" t="s">
         <v>168</v>
@@ -27384,219 +27385,219 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
-        <v>45096</v>
-      </c>
-      <c r="C44" s="17">
-        <v>1.81</v>
+        <v>45110</v>
+      </c>
+      <c r="C44" s="18">
+        <v>1.98</v>
       </c>
       <c r="D44" s="56">
         <f t="shared" si="0"/>
-        <v>-3.208556149732622E-2</v>
+        <v>-3.4146341463414553E-2</v>
       </c>
       <c r="H44" s="96">
         <v>0.01</v>
       </c>
       <c r="I44" s="97">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
-        <v>-0.2176169541010321</v>
+        <v>-0.2171252036936448</v>
       </c>
       <c r="J44" s="98">
         <v>0.2</v>
       </c>
       <c r="K44" s="97">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
-        <v>-9.5091969024047152E-2</v>
+        <v>-9.5179644752476061E-2</v>
       </c>
       <c r="L44" s="98">
         <v>0.85</v>
       </c>
       <c r="M44" s="99">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
-        <v>7.8438911852350302E-2</v>
+        <v>7.7977506488512899E-2</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
-        <v>45089</v>
-      </c>
-      <c r="C45" s="17">
-        <v>1.87</v>
+        <v>45103</v>
+      </c>
+      <c r="C45" s="18">
+        <v>2.0499999999999998</v>
       </c>
       <c r="D45" s="56">
         <f t="shared" si="0"/>
-        <v>-6.9651741293532132E-2</v>
+        <v>0.13259668508287281</v>
       </c>
       <c r="H45" s="100">
         <v>0.02</v>
       </c>
       <c r="I45" s="101">
         <f t="shared" si="7"/>
-        <v>-0.20408163265306134</v>
+        <v>-0.20362063271910716</v>
       </c>
       <c r="J45" s="102">
         <v>0.25</v>
       </c>
       <c r="K45" s="101">
         <f t="shared" si="8"/>
-        <v>-7.9862134204953139E-2</v>
+        <v>-7.9942897930049939E-2</v>
       </c>
       <c r="L45" s="102">
         <v>0.86</v>
       </c>
       <c r="M45" s="103">
         <f t="shared" si="9"/>
-        <v>8.4070796460177233E-2</v>
+        <v>8.27091912731098E-2</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
-        <v>45082</v>
-      </c>
-      <c r="C46" s="17">
-        <v>2.0099999999999998</v>
+        <v>45096</v>
+      </c>
+      <c r="C46" s="18">
+        <v>1.81</v>
       </c>
       <c r="D46" s="56">
         <f t="shared" si="0"/>
-        <v>0.16860465116279055</v>
+        <v>-3.208556149732622E-2</v>
       </c>
       <c r="H46" s="100">
         <v>0.03</v>
       </c>
       <c r="I46" s="101">
         <f t="shared" si="7"/>
-        <v>-0.1860219068956932</v>
+        <v>-0.18523773960667156</v>
       </c>
       <c r="J46" s="102">
         <v>0.3</v>
       </c>
       <c r="K46" s="101">
         <f t="shared" si="8"/>
-        <v>-6.7796610169491456E-2</v>
+        <v>-6.8538662619107724E-2</v>
       </c>
       <c r="L46" s="102">
         <v>0.87</v>
       </c>
       <c r="M46" s="103">
         <f t="shared" si="9"/>
-        <v>8.9774032937571802E-2</v>
+        <v>8.7662964381463065E-2</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
-        <v>45075</v>
-      </c>
-      <c r="C47" s="17">
-        <v>1.72</v>
+        <v>45089</v>
+      </c>
+      <c r="C47" s="18">
+        <v>1.87</v>
       </c>
       <c r="D47" s="56">
         <f t="shared" si="0"/>
-        <v>-2.2727272727272707E-2</v>
+        <v>-6.9651741293532132E-2</v>
       </c>
       <c r="H47" s="100">
         <v>0.04</v>
       </c>
       <c r="I47" s="101">
         <f t="shared" si="7"/>
-        <v>-0.173170731707317</v>
+        <v>-0.17313299871364787</v>
       </c>
       <c r="J47" s="102">
         <v>0.35</v>
       </c>
       <c r="K47" s="101">
         <f t="shared" si="8"/>
-        <v>-6.1047027506654861E-2</v>
+        <v>-6.1153504880213073E-2</v>
       </c>
       <c r="L47" s="102">
         <v>0.88</v>
       </c>
       <c r="M47" s="103">
         <f t="shared" si="9"/>
-        <v>9.9099099099098975E-2</v>
+        <v>9.7835422553921081E-2</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
-        <v>45068</v>
-      </c>
-      <c r="C48" s="17">
-        <v>1.76</v>
+        <v>45082</v>
+      </c>
+      <c r="C48" s="18">
+        <v>2.0099999999999998</v>
       </c>
       <c r="D48" s="56">
         <f t="shared" si="0"/>
-        <v>-1.1235955056179803E-2</v>
+        <v>0.16860465116279055</v>
       </c>
       <c r="H48" s="100">
         <v>0.05</v>
       </c>
       <c r="I48" s="101">
         <f t="shared" si="7"/>
-        <v>-0.17044459862860128</v>
+        <v>-0.16999370449703094</v>
       </c>
       <c r="J48" s="102">
         <v>0.4</v>
       </c>
       <c r="K48" s="101">
         <f t="shared" si="8"/>
-        <v>-4.5454545454545525E-2</v>
+        <v>-4.6041055718475131E-2</v>
       </c>
       <c r="L48" s="102">
         <v>0.89</v>
       </c>
       <c r="M48" s="103">
         <f t="shared" si="9"/>
-        <v>0.11814088035309556</v>
+        <v>0.11784563998568538</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
-        <v>45061</v>
-      </c>
-      <c r="C49" s="17">
-        <v>1.78</v>
+        <v>45075</v>
+      </c>
+      <c r="C49" s="18">
+        <v>1.72</v>
       </c>
       <c r="D49" s="56">
         <f t="shared" si="0"/>
-        <v>-0.15238095238095239</v>
+        <v>-2.2727272727272707E-2</v>
       </c>
       <c r="H49" s="100">
         <v>0.06</v>
       </c>
       <c r="I49" s="101">
         <f t="shared" si="7"/>
-        <v>-0.16173908695652184</v>
+        <v>-0.1609078023794798</v>
       </c>
       <c r="J49" s="102">
         <v>0.45</v>
       </c>
       <c r="K49" s="101">
         <f t="shared" si="8"/>
-        <v>-3.8136241867585241E-2</v>
+        <v>-3.8201301186375901E-2</v>
       </c>
       <c r="L49" s="102">
         <v>0.9</v>
       </c>
       <c r="M49" s="103">
         <f t="shared" si="9"/>
-        <v>0.12206572769953072</v>
+        <v>0.12141495839724835</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
-        <v>45054</v>
-      </c>
-      <c r="C50" s="17">
-        <v>2.1</v>
+        <v>45068</v>
+      </c>
+      <c r="C50" s="18">
+        <v>1.76</v>
       </c>
       <c r="D50" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.1235955056179803E-2</v>
       </c>
       <c r="H50" s="100">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I50" s="101">
         <f t="shared" si="7"/>
-        <v>-0.15359633393106198</v>
+        <v>-0.15325602709703129</v>
       </c>
       <c r="J50" s="102">
         <v>0.5</v>
@@ -27610,224 +27611,224 @@
       </c>
       <c r="M50" s="103">
         <f t="shared" si="9"/>
-        <v>0.12619086921662026</v>
+        <v>0.12526765080413144</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
-        <v>45047</v>
-      </c>
-      <c r="C51" s="17">
-        <v>2.1</v>
+        <v>45061</v>
+      </c>
+      <c r="C51" s="18">
+        <v>1.78</v>
       </c>
       <c r="D51" s="56">
         <f t="shared" si="0"/>
-        <v>-9.8712446351931327E-2</v>
+        <v>-0.15238095238095239</v>
       </c>
       <c r="H51" s="100">
         <v>0.08</v>
       </c>
       <c r="I51" s="101">
         <f t="shared" si="7"/>
-        <v>-0.15062111801242228</v>
+        <v>-0.15048112999337887</v>
       </c>
       <c r="J51" s="102">
         <v>0.55000000000000004</v>
       </c>
       <c r="K51" s="101">
         <f t="shared" si="8"/>
-        <v>-1.9967402145620039E-2</v>
+        <v>-2.1476787792577282E-2</v>
       </c>
       <c r="L51" s="102">
         <v>0.92</v>
       </c>
       <c r="M51" s="103">
         <f t="shared" si="9"/>
-        <v>0.13259668508287281</v>
+        <v>0.13198207383871188</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
-        <v>45040</v>
-      </c>
-      <c r="C52" s="17">
-        <v>2.33</v>
+        <v>45054</v>
+      </c>
+      <c r="C52" s="18">
+        <v>2.1</v>
       </c>
       <c r="D52" s="56">
         <f t="shared" si="0"/>
-        <v>3.5555555555555562E-2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="100">
         <v>0.09</v>
       </c>
       <c r="I52" s="101">
         <f t="shared" si="7"/>
-        <v>-0.14630166787527188</v>
+        <v>-0.1450616388687454</v>
       </c>
       <c r="J52" s="102">
         <v>0.6</v>
       </c>
       <c r="K52" s="101">
         <f t="shared" si="8"/>
-        <v>-7.8740157480314821E-3</v>
+        <v>-9.7103963699453223E-3</v>
       </c>
       <c r="L52" s="102">
         <v>0.93</v>
       </c>
       <c r="M52" s="103">
         <f t="shared" si="9"/>
-        <v>0.14418654980252121</v>
+        <v>0.14401233565979546</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
-        <v>45033</v>
-      </c>
-      <c r="C53" s="17">
-        <v>2.25</v>
+        <v>45047</v>
+      </c>
+      <c r="C53" s="18">
+        <v>2.1</v>
       </c>
       <c r="D53" s="56">
         <f t="shared" si="0"/>
-        <v>-1.3157894736842035E-2</v>
+        <v>-9.8712446351931327E-2</v>
       </c>
       <c r="H53" s="100">
         <v>0.1</v>
       </c>
       <c r="I53" s="101">
         <f t="shared" si="7"/>
-        <v>-0.12401574803149606</v>
+        <v>-0.12390395644988823</v>
       </c>
       <c r="J53" s="102">
         <v>0.65</v>
       </c>
       <c r="K53" s="101">
         <f t="shared" si="8"/>
-        <v>9.2191149354636792E-4</v>
+        <v>0</v>
       </c>
       <c r="L53" s="102">
         <v>0.94</v>
       </c>
       <c r="M53" s="103">
         <f t="shared" si="9"/>
-        <v>0.14629258517034049</v>
+        <v>0.14611452413022749</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
-        <v>45026</v>
-      </c>
-      <c r="C54" s="17">
-        <v>2.2799999999999998</v>
+        <v>45040</v>
+      </c>
+      <c r="C54" s="18">
+        <v>2.33</v>
       </c>
       <c r="D54" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5555555555555562E-2</v>
       </c>
       <c r="H54" s="100">
         <v>0.11</v>
       </c>
       <c r="I54" s="101">
         <f t="shared" si="7"/>
-        <v>-0.12285308943825657</v>
+        <v>-0.12258746113676842</v>
       </c>
       <c r="J54" s="102">
         <v>0.7</v>
       </c>
       <c r="K54" s="101">
         <f t="shared" si="8"/>
-        <v>1.2552301255229992E-2</v>
+        <v>1.252092050209197E-2</v>
       </c>
       <c r="L54" s="102">
         <v>0.95</v>
       </c>
       <c r="M54" s="103">
         <f t="shared" si="9"/>
-        <v>0.16971496153788912</v>
+        <v>0.16949289946286941</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
-        <v>45019</v>
-      </c>
-      <c r="C55" s="17">
-        <v>2.2799999999999998</v>
+        <v>45033</v>
+      </c>
+      <c r="C55" s="18">
+        <v>2.25</v>
       </c>
       <c r="D55" s="56">
         <f t="shared" si="0"/>
-        <v>-5.7851239669421517E-2</v>
+        <v>-1.3157894736842035E-2</v>
       </c>
       <c r="H55" s="100">
         <v>0.12</v>
       </c>
       <c r="I55" s="101">
         <f t="shared" si="7"/>
-        <v>-0.11875843454790824</v>
+        <v>-0.1184917043740573</v>
       </c>
       <c r="J55" s="102">
         <v>0.75</v>
       </c>
       <c r="K55" s="101">
         <f t="shared" si="8"/>
-        <v>3.4039644565960314E-2</v>
+        <v>3.3492822966507241E-2</v>
       </c>
       <c r="L55" s="102">
         <v>0.96</v>
       </c>
       <c r="M55" s="103">
         <f t="shared" si="9"/>
-        <v>0.20098039215686292</v>
+        <v>0.19856798253735253</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
-        <v>45012</v>
-      </c>
-      <c r="C56" s="17">
-        <v>2.42</v>
+        <v>45026</v>
+      </c>
+      <c r="C56" s="18">
+        <v>2.2799999999999998</v>
       </c>
       <c r="D56" s="56">
         <f t="shared" si="0"/>
-        <v>1.2552301255229992E-2</v>
+        <v>0</v>
       </c>
       <c r="H56" s="100">
         <v>0.13</v>
       </c>
       <c r="I56" s="101">
         <f t="shared" si="7"/>
-        <v>-0.11757928978042825</v>
+        <v>-0.1175440498780157</v>
       </c>
       <c r="J56" s="102">
         <v>0.8</v>
       </c>
       <c r="K56" s="101">
         <f t="shared" si="8"/>
-        <v>5.555555555555558E-2</v>
+        <v>5.4503249767873796E-2</v>
       </c>
       <c r="L56" s="102">
         <v>0.97</v>
       </c>
       <c r="M56" s="103">
         <f t="shared" si="9"/>
-        <v>0.21548763837747442</v>
+        <v>0.21430390146164452</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
-        <v>45005</v>
-      </c>
-      <c r="C57" s="17">
-        <v>2.39</v>
+        <v>45019</v>
+      </c>
+      <c r="C57" s="18">
+        <v>2.2799999999999998</v>
       </c>
       <c r="D57" s="56">
         <f t="shared" si="0"/>
-        <v>3.463203463203457E-2</v>
+        <v>-5.7851239669421517E-2</v>
       </c>
       <c r="H57" s="100">
         <v>0.14000000000000001</v>
       </c>
       <c r="I57" s="101">
         <f t="shared" si="7"/>
-        <v>-0.11585365853658534</v>
+        <v>-0.11452574525745254</v>
       </c>
       <c r="J57" s="102"/>
       <c r="K57" s="101"/>
@@ -27836,26 +27837,26 @@
       </c>
       <c r="M57" s="103">
         <f t="shared" si="9"/>
-        <v>0.34816753926701582</v>
+        <v>0.34325492220337844</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
-        <v>44998</v>
-      </c>
-      <c r="C58" s="17">
-        <v>2.31</v>
+        <v>45012</v>
+      </c>
+      <c r="C58" s="18">
+        <v>2.42</v>
       </c>
       <c r="D58" s="56">
         <f t="shared" si="0"/>
-        <v>0.14356435643564347</v>
+        <v>1.2552301255229992E-2</v>
       </c>
       <c r="H58" s="104">
         <v>0.15</v>
       </c>
       <c r="I58" s="105">
         <f t="shared" si="7"/>
-        <v>-0.10988247863247858</v>
+        <v>-0.10914529914529909</v>
       </c>
       <c r="J58" s="106"/>
       <c r="K58" s="107"/>
@@ -27864,31 +27865,31 @@
       </c>
       <c r="M58" s="109">
         <f t="shared" si="9"/>
-        <v>0.42219274977895671</v>
+        <v>0.42068965517241308</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
-        <v>44991</v>
-      </c>
-      <c r="C59" s="17">
-        <v>2.02</v>
+        <v>45005</v>
+      </c>
+      <c r="C59" s="18">
+        <v>2.39</v>
       </c>
       <c r="D59" s="56">
         <f t="shared" si="0"/>
-        <v>-0.15481171548117156</v>
+        <v>3.463203463203457E-2</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
-        <v>44984</v>
-      </c>
-      <c r="C60" s="17">
-        <v>2.39</v>
+        <v>44998</v>
+      </c>
+      <c r="C60" s="18">
+        <v>2.31</v>
       </c>
       <c r="D60" s="56">
         <f t="shared" si="0"/>
-        <v>0.12206572769953072</v>
+        <v>0.14356435643564347</v>
       </c>
       <c r="H60" s="110" t="s">
         <v>169</v>
@@ -27899,14 +27900,14 @@
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
-        <v>44977</v>
-      </c>
-      <c r="C61" s="17">
-        <v>2.13</v>
+        <v>44991</v>
+      </c>
+      <c r="C61" s="18">
+        <v>2.02</v>
       </c>
       <c r="D61" s="56">
         <f t="shared" si="0"/>
-        <v>-3.6199095022624417E-2</v>
+        <v>-0.15481171548117156</v>
       </c>
       <c r="H61" s="112" t="s">
         <v>170</v>
@@ -27917,27 +27918,27 @@
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
-        <v>44970</v>
-      </c>
-      <c r="C62" s="17">
-        <v>2.21</v>
+        <v>44984</v>
+      </c>
+      <c r="C62" s="18">
+        <v>2.39</v>
       </c>
       <c r="D62" s="56">
         <f t="shared" si="0"/>
-        <v>5.741626794258381E-2</v>
+        <v>0.12206572769953072</v>
       </c>
       <c r="H62" s="114"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
-        <v>44963</v>
-      </c>
-      <c r="C63" s="17">
-        <v>2.09</v>
+        <v>44977</v>
+      </c>
+      <c r="C63" s="18">
+        <v>2.13</v>
       </c>
       <c r="D63" s="56">
         <f t="shared" si="0"/>
-        <v>-0.20532319391634979</v>
+        <v>-3.6199095022624417E-2</v>
       </c>
       <c r="H63" s="110" t="s">
         <v>171</v>
@@ -27948,14 +27949,14 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
-        <v>44956</v>
-      </c>
-      <c r="C64" s="17">
-        <v>2.63</v>
+        <v>44970</v>
+      </c>
+      <c r="C64" s="18">
+        <v>2.21</v>
       </c>
       <c r="D64" s="56">
         <f t="shared" si="0"/>
-        <v>0.12875536480686689</v>
+        <v>5.741626794258381E-2</v>
       </c>
       <c r="H64" s="116" t="s">
         <v>172</v>
@@ -27967,14 +27968,14 @@
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
-        <v>44949</v>
-      </c>
-      <c r="C65" s="17">
-        <v>2.33</v>
+        <v>44963</v>
+      </c>
+      <c r="C65" s="18">
+        <v>2.09</v>
       </c>
       <c r="D65" s="56">
         <f t="shared" si="0"/>
-        <v>-8.2677165354330673E-2</v>
+        <v>-0.20532319391634979</v>
       </c>
       <c r="H65" s="112" t="s">
         <v>173</v>
@@ -27986,1065 +27987,1079 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
-        <v>44942</v>
-      </c>
-      <c r="C66" s="17">
-        <v>2.54</v>
+        <v>44956</v>
+      </c>
+      <c r="C66" s="18">
+        <v>2.63</v>
       </c>
       <c r="D66" s="56">
         <f t="shared" si="0"/>
-        <v>7.9365079365079083E-3</v>
+        <v>0.12875536480686689</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
-        <v>44935</v>
-      </c>
-      <c r="C67" s="17">
-        <v>2.52</v>
+        <v>44949</v>
+      </c>
+      <c r="C67" s="18">
+        <v>2.33</v>
       </c>
       <c r="D67" s="56">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
-        <v>-7.8740157480314821E-3</v>
+        <v>-8.2677165354330673E-2</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
-        <v>44928</v>
-      </c>
-      <c r="C68" s="17">
+        <v>44942</v>
+      </c>
+      <c r="C68" s="18">
         <v>2.54</v>
       </c>
       <c r="D68" s="56">
         <f t="shared" si="10"/>
-        <v>0.45977011494252884</v>
+        <v>7.9365079365079083E-3</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
-        <v>44921</v>
-      </c>
-      <c r="C69" s="17">
-        <v>1.74</v>
+        <v>44935</v>
+      </c>
+      <c r="C69" s="18">
+        <v>2.52</v>
       </c>
       <c r="D69" s="56">
         <f t="shared" si="10"/>
-        <v>0.22535211267605648</v>
+        <v>-7.8740157480314821E-3</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
-        <v>44914</v>
-      </c>
-      <c r="C70" s="17">
-        <v>1.42</v>
+        <v>44928</v>
+      </c>
+      <c r="C70" s="18">
+        <v>2.54</v>
       </c>
       <c r="D70" s="56">
         <f t="shared" si="10"/>
-        <v>4.4117647058823373E-2</v>
+        <v>0.45977011494252884</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
-        <v>44907</v>
-      </c>
-      <c r="C71" s="17">
-        <v>1.36</v>
+        <v>44921</v>
+      </c>
+      <c r="C71" s="18">
+        <v>1.74</v>
       </c>
       <c r="D71" s="56">
         <f t="shared" si="10"/>
-        <v>-4.2253521126760396E-2</v>
+        <v>0.22535211267605648</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
-        <v>44900</v>
-      </c>
-      <c r="C72" s="17">
+        <v>44914</v>
+      </c>
+      <c r="C72" s="18">
         <v>1.42</v>
       </c>
       <c r="D72" s="56">
         <f t="shared" si="10"/>
-        <v>-0.12345679012345689</v>
+        <v>4.4117647058823373E-2</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
-        <v>44893</v>
-      </c>
-      <c r="C73" s="17">
-        <v>1.62</v>
+        <v>44907</v>
+      </c>
+      <c r="C73" s="18">
+        <v>1.36</v>
       </c>
       <c r="D73" s="56">
         <f t="shared" si="10"/>
-        <v>1.2499999999999956E-2</v>
+        <v>-4.2253521126760396E-2</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
-        <v>44886</v>
-      </c>
-      <c r="C74" s="17">
-        <v>1.6</v>
+        <v>44900</v>
+      </c>
+      <c r="C74" s="18">
+        <v>1.42</v>
       </c>
       <c r="D74" s="56">
         <f t="shared" si="10"/>
-        <v>-0.1794871794871794</v>
+        <v>-0.12345679012345689</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
-        <v>44879</v>
-      </c>
-      <c r="C75" s="17">
-        <v>1.95</v>
+        <v>44893</v>
+      </c>
+      <c r="C75" s="18">
+        <v>1.62</v>
       </c>
       <c r="D75" s="56">
         <f t="shared" si="10"/>
-        <v>-0.20408163265306134</v>
+        <v>1.2499999999999956E-2</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
-        <v>44872</v>
-      </c>
-      <c r="C76" s="17">
-        <v>2.4500000000000002</v>
+        <v>44886</v>
+      </c>
+      <c r="C76" s="18">
+        <v>1.6</v>
       </c>
       <c r="D76" s="56">
         <f t="shared" si="10"/>
-        <v>0.20098039215686292</v>
+        <v>-0.1794871794871794</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
-        <v>44865</v>
-      </c>
-      <c r="C77" s="17">
-        <v>2.04</v>
+        <v>44879</v>
+      </c>
+      <c r="C77" s="18">
+        <v>1.95</v>
       </c>
       <c r="D77" s="56">
         <f t="shared" si="10"/>
-        <v>-5.9907834101382451E-2</v>
+        <v>-0.20408163265306134</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
-        <v>44858</v>
-      </c>
-      <c r="C78" s="17">
-        <v>2.17</v>
+        <v>44872</v>
+      </c>
+      <c r="C78" s="18">
+        <v>2.4500000000000002</v>
       </c>
       <c r="D78" s="56">
         <f t="shared" si="10"/>
-        <v>5.8536585365853711E-2</v>
+        <v>0.20098039215686292</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
-        <v>44851</v>
-      </c>
-      <c r="C79" s="17">
-        <v>2.0499999999999998</v>
+        <v>44865</v>
+      </c>
+      <c r="C79" s="18">
+        <v>2.04</v>
       </c>
       <c r="D79" s="56">
         <f t="shared" si="10"/>
-        <v>-8.8888888888889017E-2</v>
+        <v>-5.9907834101382451E-2</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
-        <v>44844</v>
-      </c>
-      <c r="C80" s="17">
-        <v>2.25</v>
+        <v>44858</v>
+      </c>
+      <c r="C80" s="18">
+        <v>2.17</v>
       </c>
       <c r="D80" s="56">
         <f t="shared" si="10"/>
-        <v>-0.11764705882352933</v>
+        <v>5.8536585365853711E-2</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
-        <v>44837</v>
-      </c>
-      <c r="C81" s="17">
-        <v>2.5499999999999998</v>
+        <v>44851</v>
+      </c>
+      <c r="C81" s="18">
+        <v>2.0499999999999998</v>
       </c>
       <c r="D81" s="56">
         <f t="shared" si="10"/>
-        <v>-3.041825095057038E-2</v>
+        <v>-8.8888888888889017E-2</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
-        <v>44830</v>
-      </c>
-      <c r="C82" s="17">
-        <v>2.63</v>
+        <v>44844</v>
+      </c>
+      <c r="C82" s="18">
+        <v>2.25</v>
       </c>
       <c r="D82" s="56">
         <f t="shared" si="10"/>
-        <v>-2.2304832713754719E-2</v>
+        <v>-0.11764705882352933</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
-        <v>44823</v>
-      </c>
-      <c r="C83" s="17">
-        <v>2.69</v>
+        <v>44837</v>
+      </c>
+      <c r="C83" s="18">
+        <v>2.5499999999999998</v>
       </c>
       <c r="D83" s="56">
         <f t="shared" si="10"/>
-        <v>-0.10033444816053516</v>
+        <v>-3.041825095057038E-2</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
-        <v>44816</v>
-      </c>
-      <c r="C84" s="17">
-        <v>2.99</v>
+        <v>44830</v>
+      </c>
+      <c r="C84" s="18">
+        <v>2.63</v>
       </c>
       <c r="D84" s="56">
         <f t="shared" si="10"/>
-        <v>-8.5626911314984677E-2</v>
+        <v>-2.2304832713754719E-2</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
-        <v>44809</v>
-      </c>
-      <c r="C85" s="17">
-        <v>3.27</v>
+        <v>44823</v>
+      </c>
+      <c r="C85" s="18">
+        <v>2.69</v>
       </c>
       <c r="D85" s="56">
         <f t="shared" si="10"/>
-        <v>7.9207920792079278E-2</v>
+        <v>-0.10033444816053516</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
-        <v>44802</v>
-      </c>
-      <c r="C86" s="17">
-        <v>3.03</v>
+        <v>44816</v>
+      </c>
+      <c r="C86" s="18">
+        <v>2.99</v>
       </c>
       <c r="D86" s="56">
         <f t="shared" si="10"/>
-        <v>-6.7692307692307718E-2</v>
+        <v>-8.5626911314984677E-2</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
-        <v>44795</v>
-      </c>
-      <c r="C87" s="17">
-        <v>3.25</v>
+        <v>44809</v>
+      </c>
+      <c r="C87" s="18">
+        <v>3.27</v>
       </c>
       <c r="D87" s="56">
         <f t="shared" si="10"/>
-        <v>-4.1297935103244865E-2</v>
+        <v>7.9207920792079278E-2</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
-        <v>44788</v>
-      </c>
-      <c r="C88" s="17">
-        <v>3.39</v>
+        <v>44802</v>
+      </c>
+      <c r="C88" s="18">
+        <v>3.03</v>
       </c>
       <c r="D88" s="56">
         <f t="shared" si="10"/>
-        <v>-0.173170731707317</v>
+        <v>-6.7692307692307718E-2</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
-        <v>44781</v>
-      </c>
-      <c r="C89" s="17">
-        <v>4.0999999999999996</v>
+        <v>44795</v>
+      </c>
+      <c r="C89" s="18">
+        <v>3.25</v>
       </c>
       <c r="D89" s="56">
         <f t="shared" si="10"/>
-        <v>3.2745591939546514E-2</v>
+        <v>-4.1297935103244865E-2</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
-        <v>44774</v>
-      </c>
-      <c r="C90" s="17">
-        <v>3.97</v>
+        <v>44788</v>
+      </c>
+      <c r="C90" s="18">
+        <v>3.39</v>
       </c>
       <c r="D90" s="56">
         <f t="shared" si="10"/>
-        <v>6.7204301075268758E-2</v>
+        <v>-0.173170731707317</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
-        <v>44767</v>
-      </c>
-      <c r="C91" s="17">
-        <v>3.72</v>
+        <v>44781</v>
+      </c>
+      <c r="C91" s="18">
+        <v>4.0999999999999996</v>
       </c>
       <c r="D91" s="56">
         <f t="shared" si="10"/>
-        <v>-1.5873015873015817E-2</v>
+        <v>3.2745591939546514E-2</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="12">
-        <v>44760</v>
-      </c>
-      <c r="C92" s="17">
-        <v>3.78</v>
+        <v>44774</v>
+      </c>
+      <c r="C92" s="18">
+        <v>3.97</v>
       </c>
       <c r="D92" s="56">
         <f t="shared" si="10"/>
-        <v>5.2924791086351064E-2</v>
+        <v>6.7204301075268758E-2</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="12">
-        <v>44753</v>
-      </c>
-      <c r="C93" s="17">
-        <v>3.59</v>
+        <v>44767</v>
+      </c>
+      <c r="C93" s="18">
+        <v>3.72</v>
       </c>
       <c r="D93" s="56">
         <f t="shared" si="10"/>
-        <v>-0.12224938875305624</v>
+        <v>-1.5873015873015817E-2</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="12">
-        <v>44746</v>
-      </c>
-      <c r="C94" s="17">
-        <v>4.09</v>
+        <v>44760</v>
+      </c>
+      <c r="C94" s="18">
+        <v>3.78</v>
       </c>
       <c r="D94" s="56">
         <f t="shared" si="10"/>
-        <v>0.12362637362637363</v>
+        <v>5.2924791086351064E-2</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="12">
-        <v>44739</v>
-      </c>
-      <c r="C95" s="17">
-        <v>3.64</v>
+        <v>44753</v>
+      </c>
+      <c r="C95" s="18">
+        <v>3.59</v>
       </c>
       <c r="D95" s="56">
         <f t="shared" si="10"/>
-        <v>-0.10784313725490191</v>
+        <v>-0.12224938875305624</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="12">
-        <v>44732</v>
-      </c>
-      <c r="C96" s="17">
-        <v>4.08</v>
+        <v>44746</v>
+      </c>
+      <c r="C96" s="18">
+        <v>4.09</v>
       </c>
       <c r="D96" s="56">
         <f t="shared" si="10"/>
-        <v>9.3833780160857971E-2</v>
+        <v>0.12362637362637363</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
-        <v>44725</v>
-      </c>
-      <c r="C97" s="17">
-        <v>3.73</v>
+        <v>44739</v>
+      </c>
+      <c r="C97" s="18">
+        <v>3.64</v>
       </c>
       <c r="D97" s="56">
         <f t="shared" si="10"/>
-        <v>-4.1131105398457657E-2</v>
+        <v>-0.10784313725490191</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="12">
-        <v>44718</v>
-      </c>
-      <c r="C98" s="17">
-        <v>3.89</v>
+        <v>44732</v>
+      </c>
+      <c r="C98" s="18">
+        <v>4.08</v>
       </c>
       <c r="D98" s="56">
         <f t="shared" si="10"/>
-        <v>-3.9506172839506082E-2</v>
+        <v>9.3833780160857971E-2</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="12">
-        <v>44711</v>
-      </c>
-      <c r="C99" s="17">
-        <v>4.05</v>
+        <v>44725</v>
+      </c>
+      <c r="C99" s="18">
+        <v>3.73</v>
       </c>
       <c r="D99" s="56">
         <f t="shared" si="10"/>
-        <v>-3.341288782816243E-2</v>
+        <v>-4.1131105398457657E-2</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="12">
-        <v>44704</v>
-      </c>
-      <c r="C100" s="17">
-        <v>4.1900000000000004</v>
+        <v>44718</v>
+      </c>
+      <c r="C100" s="18">
+        <v>3.89</v>
       </c>
       <c r="D100" s="56">
         <f t="shared" si="10"/>
-        <v>0.14480874316939896</v>
+        <v>-3.9506172839506082E-2</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="12">
-        <v>44697</v>
-      </c>
-      <c r="C101" s="17">
-        <v>3.66</v>
+        <v>44711</v>
+      </c>
+      <c r="C101" s="18">
+        <v>4.05</v>
       </c>
       <c r="D101" s="56">
         <f t="shared" si="10"/>
-        <v>-1.3477088948786964E-2</v>
+        <v>-3.341288782816243E-2</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="12">
-        <v>44690</v>
-      </c>
-      <c r="C102" s="17">
-        <v>3.71</v>
+        <v>44704</v>
+      </c>
+      <c r="C102" s="18">
+        <v>4.1900000000000004</v>
       </c>
       <c r="D102" s="56">
         <f t="shared" si="10"/>
-        <v>0.11746987951807242</v>
+        <v>0.14480874316939896</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="12">
-        <v>44683</v>
-      </c>
-      <c r="C103" s="17">
-        <v>3.32</v>
+        <v>44697</v>
+      </c>
+      <c r="C103" s="18">
+        <v>3.66</v>
       </c>
       <c r="D103" s="56">
         <f t="shared" si="10"/>
-        <v>-6.7415730337078705E-2</v>
+        <v>-1.3477088948786964E-2</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="12">
-        <v>44676</v>
-      </c>
-      <c r="C104" s="17">
-        <v>3.56</v>
+        <v>44690</v>
+      </c>
+      <c r="C104" s="18">
+        <v>3.71</v>
       </c>
       <c r="D104" s="56">
         <f t="shared" si="10"/>
-        <v>-7.0496083550913857E-2</v>
+        <v>0.11746987951807242</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="12">
-        <v>44669</v>
-      </c>
-      <c r="C105" s="17">
-        <v>3.83</v>
+        <v>44683</v>
+      </c>
+      <c r="C105" s="18">
+        <v>3.32</v>
       </c>
       <c r="D105" s="56">
         <f t="shared" si="10"/>
-        <v>-0.11751152073732718</v>
+        <v>-6.7415730337078705E-2</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="12">
-        <v>44662</v>
-      </c>
-      <c r="C106" s="17">
-        <v>4.34</v>
+        <v>44676</v>
+      </c>
+      <c r="C106" s="18">
+        <v>3.56</v>
       </c>
       <c r="D106" s="56">
         <f t="shared" si="10"/>
-        <v>-2.4719101123595544E-2</v>
+        <v>-7.0496083550913857E-2</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="12">
-        <v>44655</v>
-      </c>
-      <c r="C107" s="17">
-        <v>4.45</v>
+        <v>44669</v>
+      </c>
+      <c r="C107" s="18">
+        <v>3.83</v>
       </c>
       <c r="D107" s="56">
         <f t="shared" si="10"/>
-        <v>-0.12401574803149606</v>
+        <v>-0.11751152073732718</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="12">
-        <v>44648</v>
-      </c>
-      <c r="C108" s="17">
-        <v>5.08</v>
+        <v>44662</v>
+      </c>
+      <c r="C108" s="18">
+        <v>4.34</v>
       </c>
       <c r="D108" s="56">
         <f t="shared" si="10"/>
-        <v>-7.8125E-3</v>
+        <v>-2.4719101123595544E-2</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="12">
-        <v>44641</v>
-      </c>
-      <c r="C109" s="17">
-        <v>5.12</v>
+        <v>44655</v>
+      </c>
+      <c r="C109" s="18">
+        <v>4.45</v>
       </c>
       <c r="D109" s="56">
         <f t="shared" si="10"/>
-        <v>-0.10489510489510478</v>
+        <v>-0.12401574803149606</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="12">
-        <v>44634</v>
-      </c>
-      <c r="C110" s="17">
-        <v>5.72</v>
+        <v>44648</v>
+      </c>
+      <c r="C110" s="18">
+        <v>5.08</v>
       </c>
       <c r="D110" s="56">
         <f t="shared" si="10"/>
-        <v>0.14629258517034049</v>
+        <v>-7.8125E-3</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="12">
-        <v>44627</v>
-      </c>
-      <c r="C111" s="17">
-        <v>4.99</v>
+        <v>44641</v>
+      </c>
+      <c r="C111" s="18">
+        <v>5.12</v>
       </c>
       <c r="D111" s="56">
         <f t="shared" si="10"/>
-        <v>-0.192556634304207</v>
+        <v>-0.10489510489510478</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="12">
-        <v>44620</v>
-      </c>
-      <c r="C112" s="17">
-        <v>6.18</v>
+        <v>44634</v>
+      </c>
+      <c r="C112" s="18">
+        <v>5.72</v>
       </c>
       <c r="D112" s="56">
         <f t="shared" si="10"/>
-        <v>-8.1723625557206692E-2</v>
+        <v>0.14629258517034049</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="12">
-        <v>44613</v>
-      </c>
-      <c r="C113" s="17">
-        <v>6.73</v>
+        <v>44627</v>
+      </c>
+      <c r="C113" s="18">
+        <v>4.99</v>
       </c>
       <c r="D113" s="56">
         <f t="shared" si="10"/>
-        <v>-3.4433285509325562E-2</v>
+        <v>-0.192556634304207</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="12">
-        <v>44606</v>
-      </c>
-      <c r="C114" s="17">
-        <v>6.97</v>
+        <v>44620</v>
+      </c>
+      <c r="C114" s="18">
+        <v>6.18</v>
       </c>
       <c r="D114" s="56">
         <f t="shared" si="10"/>
-        <v>-4.9113233287858216E-2</v>
+        <v>-8.1723625557206692E-2</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="12">
-        <v>44599</v>
-      </c>
-      <c r="C115" s="17">
-        <v>7.33</v>
+        <v>44613</v>
+      </c>
+      <c r="C115" s="18">
+        <v>6.73</v>
       </c>
       <c r="D115" s="56">
         <f t="shared" si="10"/>
-        <v>6.5406976744186052E-2</v>
+        <v>-3.4433285509325562E-2</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="12">
-        <v>44592</v>
-      </c>
-      <c r="C116" s="17">
-        <v>6.88</v>
+        <v>44606</v>
+      </c>
+      <c r="C116" s="18">
+        <v>6.97</v>
       </c>
       <c r="D116" s="56">
         <f t="shared" si="10"/>
-        <v>3.4586466165413388E-2</v>
+        <v>-4.9113233287858216E-2</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
-        <v>44585</v>
-      </c>
-      <c r="C117" s="17">
-        <v>6.65</v>
+        <v>44599</v>
+      </c>
+      <c r="C117" s="18">
+        <v>7.33</v>
       </c>
       <c r="D117" s="56">
         <f t="shared" si="10"/>
-        <v>1.8376722817764257E-2</v>
+        <v>6.5406976744186052E-2</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="12">
-        <v>44578</v>
-      </c>
-      <c r="C118" s="17">
-        <v>6.53</v>
+        <v>44592</v>
+      </c>
+      <c r="C118" s="18">
+        <v>6.88</v>
       </c>
       <c r="D118" s="56">
         <f t="shared" si="10"/>
-        <v>-0.11875843454790824</v>
+        <v>3.4586466165413388E-2</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="12">
-        <v>44571</v>
-      </c>
-      <c r="C119" s="17">
-        <v>7.41</v>
+        <v>44585</v>
+      </c>
+      <c r="C119" s="18">
+        <v>6.65</v>
       </c>
       <c r="D119" s="56">
         <f t="shared" si="10"/>
-        <v>-7.1428571428571508E-2</v>
+        <v>1.8376722817764257E-2</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="12">
-        <v>44564</v>
-      </c>
-      <c r="C120" s="17">
-        <v>7.98</v>
+        <v>44578</v>
+      </c>
+      <c r="C120" s="18">
+        <v>6.53</v>
       </c>
       <c r="D120" s="56">
         <f t="shared" si="10"/>
-        <v>2.5125628140703071E-3</v>
+        <v>-0.11875843454790824</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="12">
-        <v>44557</v>
-      </c>
-      <c r="C121" s="17">
-        <v>7.96</v>
+        <v>44571</v>
+      </c>
+      <c r="C121" s="18">
+        <v>7.41</v>
       </c>
       <c r="D121" s="56">
         <f t="shared" si="10"/>
-        <v>-2.211302211302224E-2</v>
+        <v>-7.1428571428571508E-2</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="12">
-        <v>44550</v>
-      </c>
-      <c r="C122" s="17">
-        <v>8.14</v>
+        <v>44564</v>
+      </c>
+      <c r="C122" s="18">
+        <v>7.98</v>
       </c>
       <c r="D122" s="56">
         <f t="shared" si="10"/>
-        <v>1.8773466833541974E-2</v>
+        <v>2.5125628140703071E-3</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="12">
-        <v>44543</v>
-      </c>
-      <c r="C123" s="17">
-        <v>7.99</v>
+        <v>44557</v>
+      </c>
+      <c r="C123" s="18">
+        <v>7.96</v>
       </c>
       <c r="D123" s="56">
         <f t="shared" si="10"/>
-        <v>-5.9999999999999942E-2</v>
+        <v>-2.211302211302224E-2</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="12">
-        <v>44536</v>
-      </c>
-      <c r="C124" s="17">
-        <v>8.5</v>
+        <v>44550</v>
+      </c>
+      <c r="C124" s="18">
+        <v>8.14</v>
       </c>
       <c r="D124" s="56">
         <f t="shared" si="10"/>
-        <v>6.25E-2</v>
+        <v>1.8773466833541974E-2</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
-        <v>44529</v>
-      </c>
-      <c r="C125" s="17">
-        <v>8</v>
+        <v>44543</v>
+      </c>
+      <c r="C125" s="18">
+        <v>7.99</v>
       </c>
       <c r="D125" s="56">
         <f t="shared" si="10"/>
-        <v>-0.17269906928645296</v>
+        <v>-5.9999999999999942E-2</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="12">
-        <v>44522</v>
-      </c>
-      <c r="C126" s="17">
-        <v>9.67</v>
+        <v>44536</v>
+      </c>
+      <c r="C126" s="18">
+        <v>8.5</v>
       </c>
       <c r="D126" s="56">
         <f t="shared" si="10"/>
-        <v>-3.7810945273631935E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="12">
-        <v>44515</v>
-      </c>
-      <c r="C127" s="17">
-        <v>10.050000000000001</v>
+        <v>44529</v>
+      </c>
+      <c r="C127" s="18">
+        <v>8</v>
       </c>
       <c r="D127" s="56">
         <f t="shared" si="10"/>
-        <v>-0.14974619289340096</v>
+        <v>-0.17269906928645296</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="12">
-        <v>44508</v>
-      </c>
-      <c r="C128" s="17">
-        <v>11.82</v>
+        <v>44522</v>
+      </c>
+      <c r="C128" s="18">
+        <v>9.67</v>
       </c>
       <c r="D128" s="56">
         <f t="shared" si="10"/>
-        <v>-0.10114068441064639</v>
+        <v>-3.7810945273631935E-2</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="12">
-        <v>44501</v>
-      </c>
-      <c r="C129" s="17">
-        <v>13.15</v>
+        <v>44515</v>
+      </c>
+      <c r="C129" s="18">
+        <v>10.050000000000001</v>
       </c>
       <c r="D129" s="56">
         <f t="shared" si="10"/>
-        <v>2.0170674941815347E-2</v>
+        <v>-0.14974619289340096</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="12">
-        <v>44494</v>
-      </c>
-      <c r="C130" s="17">
-        <v>12.89</v>
+        <v>44508</v>
+      </c>
+      <c r="C130" s="18">
+        <v>11.82</v>
       </c>
       <c r="D130" s="56">
         <f t="shared" si="10"/>
-        <v>-7.9942897930049939E-2</v>
+        <v>-0.10114068441064639</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
-        <v>44487</v>
-      </c>
-      <c r="C131" s="17">
-        <v>14.01</v>
+        <v>44501</v>
+      </c>
+      <c r="C131" s="18">
+        <v>13.15</v>
       </c>
       <c r="D131" s="56">
         <f t="shared" ref="D131:D151" si="11">C131/C132-1</f>
-        <v>-3.4458993797381154E-2</v>
+        <v>2.0170674941815347E-2</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
-        <v>44480</v>
-      </c>
-      <c r="C132" s="17">
-        <v>14.51</v>
+        <v>44494</v>
+      </c>
+      <c r="C132" s="18">
+        <v>12.89</v>
       </c>
       <c r="D132" s="56">
         <f t="shared" si="11"/>
-        <v>-6.164383561643838E-3</v>
+        <v>-7.9942897930049939E-2</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="12">
-        <v>44473</v>
-      </c>
-      <c r="C133" s="17">
-        <v>14.6</v>
+        <v>44487</v>
+      </c>
+      <c r="C133" s="18">
+        <v>14.01</v>
       </c>
       <c r="D133" s="56">
         <f t="shared" si="11"/>
-        <v>-1.0169491525423791E-2</v>
+        <v>-3.4458993797381154E-2</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="12">
-        <v>44466</v>
-      </c>
-      <c r="C134" s="17">
-        <v>14.75</v>
+        <v>44480</v>
+      </c>
+      <c r="C134" s="18">
+        <v>14.51</v>
       </c>
       <c r="D134" s="56">
         <f t="shared" si="11"/>
-        <v>-9.5091969024047152E-2</v>
+        <v>-6.164383561643838E-3</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="12">
-        <v>44459</v>
-      </c>
-      <c r="C135" s="17">
-        <v>16.299999</v>
+        <v>44473</v>
+      </c>
+      <c r="C135" s="18">
+        <v>14.6</v>
       </c>
       <c r="D135" s="56">
         <f t="shared" si="11"/>
-        <v>1.8438229870927358E-3</v>
+        <v>-1.0169491525423791E-2</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="12">
-        <v>44452</v>
-      </c>
-      <c r="C136" s="17">
-        <v>16.27</v>
+        <v>44466</v>
+      </c>
+      <c r="C136" s="18">
+        <v>14.75</v>
       </c>
       <c r="D136" s="56">
         <f t="shared" si="11"/>
-        <v>-6.7621829935711752E-2</v>
+        <v>-9.5091969024047152E-2</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="12">
-        <v>44445</v>
-      </c>
-      <c r="C137" s="17">
-        <v>17.450001</v>
+        <v>44459</v>
+      </c>
+      <c r="C137" s="18">
+        <v>16.299999</v>
       </c>
       <c r="D137" s="56">
         <f t="shared" si="11"/>
-        <v>3.622333729216165E-2</v>
+        <v>1.8438229870927358E-3</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="12">
-        <v>44438</v>
-      </c>
-      <c r="C138" s="17">
-        <v>16.84</v>
+        <v>44452</v>
+      </c>
+      <c r="C138" s="18">
+        <v>16.27</v>
       </c>
       <c r="D138" s="56">
         <f t="shared" si="11"/>
-        <v>-7.9781370479856339E-2</v>
+        <v>-6.7621829935711752E-2</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="12">
-        <v>44431</v>
-      </c>
-      <c r="C139" s="17">
-        <v>18.299999</v>
+        <v>44445</v>
+      </c>
+      <c r="C139" s="18">
+        <v>17.450001</v>
       </c>
       <c r="D139" s="56">
         <f t="shared" si="11"/>
-        <v>0.17082527191298769</v>
+        <v>3.622333729216165E-2</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="12">
-        <v>44424</v>
-      </c>
-      <c r="C140" s="17">
-        <v>15.63</v>
+        <v>44438</v>
+      </c>
+      <c r="C140" s="18">
+        <v>16.84</v>
       </c>
       <c r="D140" s="56">
         <f t="shared" si="11"/>
-        <v>-7.3503315145031611E-2</v>
+        <v>-7.9781370479856339E-2</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="12">
-        <v>44417</v>
-      </c>
-      <c r="C141" s="17">
-        <v>16.870000999999998</v>
+        <v>44431</v>
+      </c>
+      <c r="C141" s="18">
+        <v>18.299999</v>
       </c>
       <c r="D141" s="56">
         <f t="shared" si="11"/>
-        <v>-8.6626859048557714E-2</v>
+        <v>0.17082527191298769</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="12">
-        <v>44410</v>
-      </c>
-      <c r="C142" s="17">
-        <v>18.469999000000001</v>
+        <v>44424</v>
+      </c>
+      <c r="C142" s="18">
+        <v>15.63</v>
       </c>
       <c r="D142" s="56">
         <f t="shared" si="11"/>
-        <v>4.0563323943662022E-2</v>
+        <v>-7.3503315145031611E-2</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="12">
-        <v>44403</v>
-      </c>
-      <c r="C143" s="17">
-        <v>17.75</v>
+        <v>44417</v>
+      </c>
+      <c r="C143" s="18">
+        <v>16.870000999999998</v>
       </c>
       <c r="D143" s="56">
         <f t="shared" si="11"/>
-        <v>-3.8982081157665549E-2</v>
+        <v>-8.6626859048557714E-2</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="12">
-        <v>44396</v>
-      </c>
-      <c r="C144" s="17">
+        <v>44410</v>
+      </c>
+      <c r="C144" s="18">
         <v>18.469999000000001</v>
       </c>
       <c r="D144" s="56">
         <f t="shared" si="11"/>
-        <v>-4.2012549688145606E-2</v>
+        <v>4.0563323943662022E-2</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="12">
-        <v>44389</v>
-      </c>
-      <c r="C145" s="17">
-        <v>19.280000999999999</v>
+        <v>44403</v>
+      </c>
+      <c r="C145" s="18">
+        <v>17.75</v>
       </c>
       <c r="D145" s="56">
         <f t="shared" si="11"/>
-        <v>-0.16173908695652184</v>
+        <v>-3.8982081157665549E-2</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="12">
-        <v>44382</v>
-      </c>
-      <c r="C146" s="17">
-        <v>23</v>
+        <v>44396</v>
+      </c>
+      <c r="C146" s="18">
+        <v>18.469999000000001</v>
       </c>
       <c r="D146" s="56">
         <f t="shared" si="11"/>
-        <v>-3.8977912516240387E-3</v>
+        <v>-4.2012549688145606E-2</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="12">
-        <v>44375</v>
-      </c>
-      <c r="C147" s="17">
-        <v>23.09</v>
+        <v>44389</v>
+      </c>
+      <c r="C147" s="18">
+        <v>19.280000999999999</v>
       </c>
       <c r="D147" s="56">
         <f t="shared" si="11"/>
-        <v>-5.3688524590163933E-2</v>
+        <v>-0.16173908695652184</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="12">
-        <v>44368</v>
-      </c>
-      <c r="C148" s="17">
-        <v>24.4</v>
+        <v>44382</v>
+      </c>
+      <c r="C148" s="18">
+        <v>23</v>
       </c>
       <c r="D148" s="56">
         <f t="shared" si="11"/>
-        <v>-6.1538461538461542E-2</v>
+        <v>-3.8977912516240387E-3</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="12">
-        <v>44361</v>
-      </c>
-      <c r="C149" s="17">
-        <v>26</v>
+        <v>44375</v>
+      </c>
+      <c r="C149" s="18">
+        <v>23.09</v>
       </c>
       <c r="D149" s="56">
         <f t="shared" si="11"/>
-        <v>-9.5022624434389136E-2</v>
+        <v>-5.3688524590163933E-2</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="12">
-        <v>44354</v>
-      </c>
-      <c r="C150" s="17">
-        <v>28.73</v>
+        <v>44368</v>
+      </c>
+      <c r="C150" s="18">
+        <v>24.4</v>
       </c>
       <c r="D150" s="56">
         <f t="shared" si="11"/>
-        <v>0.20562316407889236</v>
+        <v>-6.1538461538461542E-2</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="12">
-        <v>44347</v>
-      </c>
-      <c r="C151" s="17">
-        <v>23.83</v>
+        <v>44361</v>
+      </c>
+      <c r="C151" s="18">
+        <v>26</v>
       </c>
       <c r="D151" s="56">
         <f t="shared" si="11"/>
-        <v>5.0611980202950324E-3</v>
+        <v>-9.5022624434389136E-2</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="12">
-        <v>44340</v>
-      </c>
-      <c r="C152" s="17">
-        <v>23.709999</v>
+        <v>44354</v>
+      </c>
+      <c r="C152" s="18">
+        <v>28.73</v>
       </c>
       <c r="D152" s="56">
         <f>C152/C153-1</f>
-        <v>5.5654499361286636E-2</v>
+        <v>0.20562316407889236</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
+        <v>44347</v>
+      </c>
+      <c r="C153" s="18">
+        <v>23.83</v>
+      </c>
+      <c r="D153" s="56">
+        <f t="shared" ref="D153:D154" si="12">C153/C154-1</f>
+        <v>5.0611980202950324E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="12">
+        <v>44340</v>
+      </c>
+      <c r="C154" s="18">
+        <v>23.709999</v>
+      </c>
+      <c r="D154" s="56">
+        <f t="shared" si="12"/>
+        <v>5.5654499361286636E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="12">
         <v>44333</v>
       </c>
-      <c r="C153" s="17">
+      <c r="C155" s="18">
         <v>22.459999</v>
       </c>
-      <c r="D153" s="56"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="12"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="56"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="12"/>
-      <c r="C155" s="17"/>
       <c r="D155" s="56"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">

--- a/OTLY.xlsx
+++ b/OTLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7903A98-8A9F-4B6F-BB6F-1DC26DF091BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F843CD-F368-40CB-A2F2-BBF0FF5A2BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$20:$Q$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$3:$Q$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$4:$Q$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$3:$Q$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$4:$Q$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$20:$Q$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$21:$Q$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$2:$Q$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1272,7 +1272,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1448,7 +1448,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -9303,18 +9302,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9358,7 +9357,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9378,7 +9377,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9409,18 +9408,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9464,7 +9463,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9484,7 +9483,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -26244,8 +26243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26286,7 +26285,7 @@
       <c r="B2" s="12">
         <v>45404</v>
       </c>
-      <c r="C2" s="129">
+      <c r="C2">
         <v>0.93</v>
       </c>
       <c r="D2" s="56">
@@ -26304,7 +26303,7 @@
       <c r="B3" s="12">
         <v>45397</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3">
         <v>0.95</v>
       </c>
       <c r="D3" s="56">
@@ -27913,7 +27912,7 @@
         <v>170</v>
       </c>
       <c r="I61" s="113">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27944,7 +27943,7 @@
         <v>171</v>
       </c>
       <c r="I63" s="115">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -27963,7 +27962,7 @@
       </c>
       <c r="I64" s="117">
         <f>I63*(1-I60)</f>
-        <v>0.78280000000000005</v>
+        <v>0.81320000000000003</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27982,7 +27981,7 @@
       </c>
       <c r="I65" s="118">
         <f>I63*(1+I61)</f>
-        <v>2.06</v>
+        <v>2.2470000000000003</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">

--- a/OTLY.xlsx
+++ b/OTLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F843CD-F368-40CB-A2F2-BBF0FF5A2BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C569C25-16D6-4997-AB75-5E255802A9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$3:$Q$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$4:$Q$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$20:$Q$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$20:$Q$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$21:$Q$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$3:$Q$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$4:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
   <si>
     <t>Price</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>Target Price</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>FY25</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1278,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1448,6 +1454,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1917,7 +1927,7 @@
                   <c:v>4.6409457214919847E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1</c:v>
+                  <c:v>1.0912622351708423E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2545,7 +2555,7 @@
                   <c:v>8.4611997707126907E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>6.11631101375123E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9302,18 +9312,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9357,7 +9367,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9377,7 +9387,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9408,18 +9418,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9463,7 +9473,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9483,7 +9493,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15485,9 +15495,9 @@
       <c r="B17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="44" t="e">
+      <c r="C17" s="44">
         <f>C6/Model!Y21</f>
-        <v>#DIV/0!</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>74</v>
@@ -15503,13 +15513,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15519,12 +15529,12 @@
     <col min="24" max="24" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -15573,6 +15583,9 @@
       <c r="Q2" t="s">
         <v>82</v>
       </c>
+      <c r="R2" t="s">
+        <v>174</v>
+      </c>
       <c r="U2" t="s">
         <v>18</v>
       </c>
@@ -15588,8 +15601,11 @@
       <c r="Y2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -15656,7 +15672,7 @@
       </c>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>84</v>
       </c>
@@ -15675,14 +15691,24 @@
       <c r="N4" s="42"/>
       <c r="O4" s="42"/>
       <c r="P4" s="46"/>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="10">
+        <v>197780</v>
+      </c>
+      <c r="R4" s="10">
+        <v>202970</v>
+      </c>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="15"/>
-      <c r="Y4" s="10"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y4" s="10">
+        <v>831260</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>906290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -15748,7 +15774,7 @@
       </c>
       <c r="Y5" s="10"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -15814,7 +15840,7 @@
       </c>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -15880,7 +15906,7 @@
       </c>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -15946,7 +15972,7 @@
       </c>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -16028,7 +16054,7 @@
       </c>
       <c r="Y9" s="11"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -16094,7 +16120,7 @@
       </c>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -16176,7 +16202,7 @@
       </c>
       <c r="Y11" s="11"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -16242,7 +16268,7 @@
       </c>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -16332,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>24</v>
       </c>
@@ -16401,7 +16427,7 @@
       </c>
       <c r="Y14" s="49"/>
     </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>129</v>
       </c>
@@ -16482,12 +16508,12 @@
         <v>-347385</v>
       </c>
       <c r="X15" s="53">
-        <f t="shared" si="8"/>
+        <f>X13+X14-X12-X10</f>
         <v>-405138</v>
       </c>
       <c r="Y15" s="51"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>130</v>
       </c>
@@ -16548,7 +16574,7 @@
       </c>
       <c r="Y16" s="49"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>27</v>
       </c>
@@ -16616,7 +16642,7 @@
       </c>
       <c r="Y17" s="49"/>
     </row>
-    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>131</v>
       </c>
@@ -16702,7 +16728,7 @@
       </c>
       <c r="Y18" s="51"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -16771,7 +16797,7 @@
       </c>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -16851,7 +16877,7 @@
       </c>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>83</v>
       </c>
@@ -16870,15 +16896,24 @@
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
       <c r="P21" s="47"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="Q21" s="36">
+        <v>-0.09</v>
+      </c>
+      <c r="R21" s="36">
+        <v>-0.08</v>
+      </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="37"/>
-      <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -16960,7 +16995,7 @@
       </c>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -17042,7 +17077,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -17096,7 +17131,11 @@
       </c>
       <c r="Q24" s="4">
         <f>Q4/M3-1</f>
-        <v>-1</v>
+        <v>1.0912622351708423E-2</v>
+      </c>
+      <c r="R24" s="4">
+        <f>R4/N3-1</f>
+        <v>3.5629914229005077E-2</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3">
@@ -17112,11 +17151,15 @@
         <v>8.4611997707126907E-2</v>
       </c>
       <c r="Y24" s="4">
-        <f>Y4/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <f>Y4/X3-1</f>
+        <v>6.11631101375123E-2</v>
+      </c>
+      <c r="Z24" s="4">
+        <f>Z4/Y4-1</f>
+        <v>9.0260568293915266E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -17193,7 +17236,7 @@
         <v>-0.20140856937146709</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -17261,7 +17304,7 @@
       </c>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -17277,7 +17320,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="41"/>
     </row>
-    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -17286,76 +17329,79 @@
         <v>0</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="C29" si="21">C30+C31-C48-C49-C53</f>
         <v>0</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="20"/>
-        <v>-197156</v>
+        <f t="shared" ref="D29" si="22">D30+D31-D48-D49-D53</f>
+        <v>-97941</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E29" si="23">E30+E31-E48-E49-E53</f>
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <f>F30+F31+F32-F44-F45-F48-F47-F46-F49-F53</f>
-        <v>696398</v>
+        <f t="shared" ref="F29" si="24">F30+F31-F48-F49-F53</f>
+        <v>839878</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" ref="G29:P29" si="21">G30+G31+G32-G44-G45-G48-G47-G46-G49-G53</f>
-        <v>563269</v>
+        <f t="shared" ref="G29" si="25">G30+G31-G48-G49-G53</f>
+        <v>701537</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="21"/>
-        <v>346536</v>
+        <f t="shared" ref="H29" si="26">H30+H31-H48-H49-H53</f>
+        <v>539522</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="21"/>
-        <v>213236</v>
+        <f t="shared" ref="I29" si="27">I30+I31-I48-I49-I53</f>
+        <v>405966</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J29" si="28">J30+J31-J48-J49-J53</f>
         <v>0</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K29" si="29">K30+K31-K48-K49-K53</f>
         <v>0</v>
       </c>
       <c r="L29" s="11">
-        <f>L30+L31+L32-L44-L45-L48-L47-L46-L49-L53</f>
-        <v>-75192</v>
+        <f t="shared" ref="L29" si="30">L30+L31-L48-L49-L53</f>
+        <v>124286</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="M29" si="31">M30+M31-M48-M49-M53</f>
         <v>0</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="21"/>
-        <v>-376432</v>
+        <f t="shared" ref="N29" si="32">N30+N31-N48-N49-N53</f>
+        <v>-185057</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="O29" si="33">O30+O31-O48-O49-O53</f>
         <v>0</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" ref="P29" si="34">P30+P31-P48-P49-P53</f>
+        <v>-193534</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" ref="U29:W29" si="22">U30+U31+U32-U44-U45-U48-U47-U46-U49-U53</f>
-        <v>-197156</v>
+        <f t="shared" ref="U29:V29" si="35">U30+U31-U48-U49-U53</f>
+        <v>-97941</v>
       </c>
       <c r="V29" s="11">
-        <f t="shared" si="22"/>
-        <v>346536</v>
+        <f t="shared" si="35"/>
+        <v>539522</v>
       </c>
       <c r="W29" s="11">
-        <f t="shared" si="22"/>
-        <v>-75192</v>
-      </c>
-      <c r="X29" s="16"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <f>W30+W31-W48-W49-W53</f>
+        <v>124286</v>
+      </c>
+      <c r="X29" s="14">
+        <f>X30+X31-X48-X49-X53</f>
+        <v>-193534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -17387,6 +17433,10 @@
         <v>340730</v>
       </c>
       <c r="O30" s="10"/>
+      <c r="P30" s="15">
+        <f>X30</f>
+        <v>249299</v>
+      </c>
       <c r="U30" s="10">
         <f>D30</f>
         <v>105364</v>
@@ -17399,8 +17449,11 @@
         <f>L30</f>
         <v>82644</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X30" s="15">
+        <v>249299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -17428,20 +17481,28 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
+      <c r="P31" s="15">
+        <f t="shared" ref="P31:P55" si="36">X31</f>
+        <v>0</v>
+      </c>
       <c r="U31" s="10">
-        <f t="shared" ref="U31:U55" si="23">D31</f>
+        <f t="shared" ref="U31:U55" si="37">D31</f>
         <v>0</v>
       </c>
       <c r="V31" s="10">
-        <f t="shared" ref="V31:V55" si="24">H31</f>
+        <f t="shared" ref="V31:V55" si="38">H31</f>
         <v>249937</v>
       </c>
       <c r="W31" s="10">
         <f>L31</f>
         <v>142703</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X31" s="15">
+        <f>M31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -17473,17 +17534,24 @@
         <v>22244</v>
       </c>
       <c r="O32" s="10"/>
+      <c r="P32" s="15">
+        <f t="shared" si="36"/>
+        <v>16928</v>
+      </c>
       <c r="U32" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>11509</v>
       </c>
       <c r="V32" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>27711</v>
       </c>
       <c r="W32" s="10">
-        <f t="shared" ref="W32:W55" si="25">L32</f>
+        <f t="shared" ref="W32:X55" si="39">L32</f>
         <v>23413</v>
+      </c>
+      <c r="X32" s="15">
+        <v>16928</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -17518,17 +17586,24 @@
         <v>33925</v>
       </c>
       <c r="O33" s="10"/>
+      <c r="P33" s="15">
+        <f t="shared" si="36"/>
+        <v>33820</v>
+      </c>
       <c r="U33" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>12363</v>
       </c>
       <c r="V33" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>32229</v>
       </c>
       <c r="W33" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>17818</v>
+      </c>
+      <c r="X33" s="15">
+        <v>33820</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -17563,17 +17638,24 @@
         <v>307</v>
       </c>
       <c r="O34" s="10"/>
+      <c r="P34" s="15">
+        <f t="shared" si="36"/>
+        <v>2505</v>
+      </c>
       <c r="U34" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>514</v>
       </c>
       <c r="V34" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>435</v>
       </c>
       <c r="W34" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>243</v>
+      </c>
+      <c r="X34" s="15">
+        <v>2505</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -17608,17 +17690,24 @@
         <v>102835</v>
       </c>
       <c r="O35" s="10"/>
+      <c r="P35" s="15">
+        <f t="shared" si="36"/>
+        <v>112951</v>
+      </c>
       <c r="U35" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>71297</v>
       </c>
       <c r="V35" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>105519</v>
       </c>
       <c r="W35" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>100955</v>
+      </c>
+      <c r="X35" s="15">
+        <v>112951</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -17653,17 +17742,24 @@
         <v>102825</v>
       </c>
       <c r="O36" s="10"/>
+      <c r="P36" s="15">
+        <f t="shared" si="36"/>
+        <v>67882</v>
+      </c>
       <c r="U36" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>39115</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>95661</v>
       </c>
       <c r="W36" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>114475</v>
+      </c>
+      <c r="X36" s="15">
+        <v>67882</v>
       </c>
     </row>
     <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17671,75 +17767,81 @@
         <v>80</v>
       </c>
       <c r="B37" s="11">
-        <f t="shared" ref="B37:O37" si="26">SUM(B30:B36)</f>
+        <f t="shared" ref="B37:P37" si="40">SUM(B30:B36)</f>
         <v>0</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>240162</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>1044810</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>941751</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>807064</v>
       </c>
       <c r="I37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>666188</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>482251</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>602866</v>
       </c>
       <c r="O37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="P37" s="16"/>
+      <c r="P37" s="14">
+        <f t="shared" si="40"/>
+        <v>483385</v>
+      </c>
       <c r="U37" s="11">
-        <f t="shared" ref="U37" si="27">SUM(U30:U36)</f>
+        <f t="shared" ref="U37" si="41">SUM(U30:U36)</f>
         <v>240162</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" ref="V37" si="28">SUM(V30:V36)</f>
+        <f t="shared" ref="V37" si="42">SUM(V30:V36)</f>
         <v>807064</v>
       </c>
       <c r="W37" s="11">
-        <f t="shared" ref="W37" si="29">SUM(W30:W36)</f>
+        <f t="shared" ref="W37:X37" si="43">SUM(W30:W36)</f>
         <v>482251</v>
       </c>
-      <c r="X37" s="16"/>
+      <c r="X37" s="14">
+        <f t="shared" si="43"/>
+        <v>483385</v>
+      </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -17773,17 +17875,24 @@
         <v>122171</v>
       </c>
       <c r="O38" s="10"/>
+      <c r="P38" s="15">
+        <f t="shared" si="36"/>
+        <v>130326</v>
+      </c>
       <c r="U38" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>156463</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>145925</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>127688</v>
+      </c>
+      <c r="X38" s="15">
+        <v>130326</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -17818,17 +17927,24 @@
         <v>504743</v>
       </c>
       <c r="O39" s="10"/>
+      <c r="P39" s="15">
+        <f t="shared" si="36"/>
+        <v>360286</v>
+      </c>
       <c r="U39" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>237625</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>509648</v>
       </c>
       <c r="W39" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>492952</v>
+      </c>
+      <c r="X39" s="15">
+        <v>360286</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -17863,17 +17979,24 @@
         <v>109379</v>
       </c>
       <c r="O40" s="10"/>
+      <c r="P40" s="15">
+        <f t="shared" si="36"/>
+        <v>88393</v>
+      </c>
       <c r="U40" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>38103</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>158448</v>
       </c>
       <c r="W40" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>108598</v>
+      </c>
+      <c r="X40" s="15">
+        <v>88393</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -17908,17 +18031,24 @@
         <v>47240</v>
       </c>
       <c r="O41" s="10"/>
+      <c r="P41" s="15">
+        <f t="shared" si="36"/>
+        <v>44378</v>
+      </c>
       <c r="U41" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>6550</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>5534</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>7848</v>
+      </c>
+      <c r="X41" s="15">
+        <v>44378</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17953,80 +18083,89 @@
         <v>14717</v>
       </c>
       <c r="O42" s="10"/>
-      <c r="P42" s="16"/>
+      <c r="P42" s="15">
+        <f t="shared" si="36"/>
+        <v>10203</v>
+      </c>
       <c r="U42" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>26</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>2293</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>5860</v>
       </c>
-      <c r="X42" s="16"/>
+      <c r="X42" s="15">
+        <v>10203</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="11">
-        <f t="shared" ref="B43:O43" si="30">SUM(B37:B42)</f>
+        <f t="shared" ref="B43:P43" si="44">SUM(B37:B42)</f>
         <v>0</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>678929</v>
       </c>
       <c r="E43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1656430</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1650419</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1628912</v>
       </c>
       <c r="I43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1529282</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1225197</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1401116</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>0</v>
+      </c>
+      <c r="P43" s="14">
+        <f t="shared" si="44"/>
+        <v>1116971</v>
       </c>
       <c r="U43" s="11">
         <f>SUM(U37:U42)</f>
@@ -18039,6 +18178,10 @@
       <c r="W43" s="11">
         <f>SUM(W37:W42)</f>
         <v>1225197</v>
+      </c>
+      <c r="X43" s="14">
+        <f>SUM(X37:X42)</f>
+        <v>1116971</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -18073,17 +18216,24 @@
         <v>116475</v>
       </c>
       <c r="O44" s="10"/>
+      <c r="P44" s="15">
+        <f t="shared" si="36"/>
+        <v>121338</v>
+      </c>
       <c r="U44" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>59945</v>
       </c>
       <c r="V44" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>117473</v>
       </c>
       <c r="W44" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>123037</v>
+      </c>
+      <c r="X44" s="15">
+        <v>121338</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -18118,17 +18268,24 @@
         <v>11644</v>
       </c>
       <c r="O45" s="10"/>
+      <c r="P45" s="15">
+        <f t="shared" si="36"/>
+        <v>35328</v>
+      </c>
       <c r="U45" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>4632</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>9614</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>11823</v>
+      </c>
+      <c r="X45" s="15">
+        <v>35328</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -18163,17 +18320,25 @@
         <v>4299</v>
       </c>
       <c r="O46" s="10"/>
+      <c r="P46" s="15">
+        <f t="shared" si="36"/>
+        <v>16605</v>
+      </c>
       <c r="U46" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>852</v>
       </c>
       <c r="V46" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>567</v>
       </c>
       <c r="W46" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>5515</v>
+      </c>
+      <c r="X46" s="15">
+        <f>2732+13873</f>
+        <v>16605</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -18208,17 +18373,24 @@
         <v>81201</v>
       </c>
       <c r="O47" s="10"/>
+      <c r="P47" s="15">
+        <f t="shared" si="36"/>
+        <v>64368</v>
+      </c>
       <c r="U47" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>45295</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>93043</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>82516</v>
+      </c>
+      <c r="X47" s="15">
+        <v>64368</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -18251,17 +18423,25 @@
         <v>400244</v>
       </c>
       <c r="O48" s="10"/>
+      <c r="P48" s="15">
+        <f t="shared" si="36"/>
+        <v>323528</v>
+      </c>
       <c r="U48" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>106118</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>48471</v>
+      </c>
+      <c r="X48" s="15">
+        <f>323528</f>
+        <v>323528</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -18296,17 +18476,24 @@
         <v>10332</v>
       </c>
       <c r="O49" s="10"/>
+      <c r="P49" s="15">
+        <f t="shared" si="36"/>
+        <v>6056</v>
+      </c>
       <c r="U49" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>5532</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>5987</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>49922</v>
+      </c>
+      <c r="X49" s="15">
+        <v>6056</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -18341,17 +18528,24 @@
         <v>14720</v>
       </c>
       <c r="O50" s="10"/>
+      <c r="P50" s="15">
+        <f t="shared" si="36"/>
+        <v>16432</v>
+      </c>
       <c r="U50" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>6261</v>
       </c>
       <c r="V50" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>16703</v>
       </c>
       <c r="W50" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>16823</v>
+      </c>
+      <c r="X50" s="15">
+        <v>16432</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18359,31 +18553,31 @@
         <v>81</v>
       </c>
       <c r="B51" s="11">
-        <f t="shared" ref="B51:O51" si="31">SUM(B44:B50)</f>
+        <f t="shared" ref="B51:P51" si="45">SUM(B44:B50)</f>
         <v>0</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>228635</v>
       </c>
       <c r="E51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>180493</v>
       </c>
       <c r="G51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>186993</v>
       </c>
       <c r="H51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>243387</v>
       </c>
       <c r="I51" s="11">
@@ -18391,47 +18585,53 @@
         <v>240110</v>
       </c>
       <c r="J51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>338107</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>638915</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="P51" s="14"/>
+      <c r="P51" s="14">
+        <f t="shared" si="45"/>
+        <v>583655</v>
+      </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11">
-        <f t="shared" ref="U51" si="32">SUM(U44:U50)</f>
+        <f t="shared" ref="U51" si="46">SUM(U44:U50)</f>
         <v>228635</v>
       </c>
       <c r="V51" s="11">
-        <f t="shared" ref="V51" si="33">SUM(V44:V50)</f>
+        <f t="shared" ref="V51" si="47">SUM(V44:V50)</f>
         <v>243387</v>
       </c>
       <c r="W51" s="11">
-        <f t="shared" ref="W51" si="34">SUM(W44:W50)</f>
+        <f t="shared" ref="W51:X51" si="48">SUM(W44:W50)</f>
         <v>338107</v>
       </c>
-      <c r="X51" s="16"/>
+      <c r="X51" s="14">
+        <f t="shared" si="48"/>
+        <v>583655</v>
+      </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -18465,17 +18665,24 @@
         <v>87418</v>
       </c>
       <c r="O52" s="10"/>
+      <c r="P52" s="15">
+        <f t="shared" si="36"/>
+        <v>72570</v>
+      </c>
       <c r="U52" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>23883</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>126516</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>82285</v>
+      </c>
+      <c r="X52" s="15">
+        <v>72570</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -18510,17 +18717,24 @@
         <v>115211</v>
       </c>
       <c r="O53" s="10"/>
+      <c r="P53" s="15">
+        <f t="shared" si="36"/>
+        <v>113249</v>
+      </c>
       <c r="U53" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>91655</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>2668</v>
+      </c>
+      <c r="X53" s="15">
+        <v>113249</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -18560,17 +18774,24 @@
         <v>13138</v>
       </c>
       <c r="O54" s="10"/>
+      <c r="P54" s="15">
+        <f t="shared" si="36"/>
+        <v>10716</v>
+      </c>
       <c r="U54" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>7354</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>11033</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>10994</v>
+      </c>
+      <c r="X54" s="15">
+        <v>10716</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -18605,16 +18826,24 @@
         <v>637</v>
       </c>
       <c r="O55" s="10"/>
+      <c r="P55" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
       <c r="U55" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>1307</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>2677</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="15">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -18623,43 +18852,43 @@
         <v>30</v>
       </c>
       <c r="B56" s="11">
-        <f t="shared" ref="B56:O56" si="35">SUM(B51:B55)</f>
+        <f t="shared" ref="B56:P56" si="49">SUM(B51:B55)</f>
         <v>0</v>
       </c>
       <c r="C56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>352834</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>261457</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>310276</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>383613</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>384359</v>
       </c>
       <c r="J56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L56" s="11">
@@ -18667,34 +18896,56 @@
         <v>434054</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>855319</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
+      <c r="P56" s="14">
+        <f t="shared" si="49"/>
+        <v>780190</v>
+      </c>
       <c r="U56" s="11">
-        <f t="shared" ref="U56:W56" si="36">SUM(U51:U55)</f>
+        <f t="shared" ref="U56:W56" si="50">SUM(U51:U55)</f>
         <v>352834</v>
       </c>
       <c r="V56" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>383613</v>
       </c>
       <c r="W56" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>434054</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
+      <c r="X56" s="14">
+        <f t="shared" ref="X56" si="51">SUM(X51:X55)</f>
+        <v>780190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="130"/>
+      <c r="U57" s="131">
+        <f t="shared" ref="U57:V57" si="52">U43-U56</f>
+        <v>326095</v>
+      </c>
+      <c r="V57" s="131">
+        <f t="shared" si="52"/>
+        <v>1245299</v>
+      </c>
+      <c r="W57" s="131">
+        <f>W43-W56</f>
+        <v>791143</v>
+      </c>
+      <c r="X57" s="132">
+        <f>X43-X56</f>
+        <v>336781</v>
+      </c>
     </row>
     <row r="59" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -26243,7 +26494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
